--- a/Översikt HALLSBERG.xlsx
+++ b/Översikt HALLSBERG.xlsx
@@ -575,7 +575,7 @@
         <v>45881</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>45197</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>45845.86603009259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>45881.29332175926</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45720.35863425926</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>45954.52908564815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>45263</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>45105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>44657</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>45272</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45731.48357638889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>45443.59229166667</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>45190</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44593.67902777778</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>45971.33545138889</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44683</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>45191</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>45027</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>44315</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>45586.93074074074</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45817</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>45565</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>45197.59850694444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>44816</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>45932.49184027778</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>44762.77344907408</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>45282</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>45148</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44862.47282407407</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>44477</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>45002</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>45581.85145833333</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>44355</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>45894.43561342593</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>45894.44199074074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>45911.3615162037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>45705</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>45034</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44935</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>45952.48162037037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>45952.48967592593</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>44328</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>45880.59251157408</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>45880.56877314814</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>45971.33780092592</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>45981.55697916666</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>44937</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>46031.43295138889</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>45314</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>45002</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>44886.64203703704</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>45392.56644675926</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>45513</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>45362</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>45397.30905092593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         <v>44412.54666666667</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44488</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>44585</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>44238</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>44336.37702546296</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>44434.92876157408</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>44862.49034722222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44782.74493055556</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>44414.58070601852</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44705.64063657408</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44648.66108796297</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>44343.63606481482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44643</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44267.65956018519</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>44414.60469907407</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44335.4658912037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>44816</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>44862.44369212963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>44657</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>44616.68016203704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>44720</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>44533.67351851852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44651</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>44757.49012731481</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44839.49916666667</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44434.9337037037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44757.48751157407</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>44533.69733796296</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>45338</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>45397.31064814814</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>44615.58527777778</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>45425.65702546296</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
         <v>44490</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>45602.67336805556</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>44956.8174537037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>45714.44074074074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>45280.65321759259</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>44651</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>44531</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>45487.82146990741</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>45460.68122685186</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>45002</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8138,7 +8138,7 @@
         <v>44791</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>45540.40835648148</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>45582.87300925926</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>45432.55381944445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>45602.67616898148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>45467.36495370371</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>45226</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>44686.66105324074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         <v>45700.64421296296</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>45084.39651620371</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>44827</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>45229</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>45802.75168981482</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>45802.7302199074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>45802.74466435185</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>45176.68957175926</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>45751.49979166667</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45195</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>45802.73936342593</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>45700.64820601852</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>45159.57568287037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>45802.75615740741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>45727</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>45196</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>45810.66016203703</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>44676</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>45728.62653935186</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>45346.78131944445</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>45812.31252314815</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>45812</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>45700.63533564815</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>45812</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>45891.66709490741</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>45894.43824074074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         <v>45240</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>45817.48034722222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>45226.65587962963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>45894.4325</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         <v>45034</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>45894.44390046296</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>45562</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10565,7 +10565,7 @@
         <v>45726.5303587963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>45896</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>45821.68605324074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>45902.40634259259</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10803,7 +10803,7 @@
         <v>45702</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>44974.64246527778</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>45821.65877314815</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>45821.66652777778</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>45902.64018518518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>45821.68314814815</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>45098</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>45902.40513888889</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>45905.3868287037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>45905.67453703703</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>45813</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>45911.36046296296</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>45911.37391203704</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>45911.37444444445</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>44978</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>45190</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11760,7 +11760,7 @@
         <v>45034</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>45915.6069212963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>44960.55600694445</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>44960.56233796296</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>45427.32009259259</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
         <v>45916.37457175926</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>44627.6367824074</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>45545</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>45924.63674768519</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>45173.48231481481</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>44532.38833333334</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12402,7 +12402,7 @@
         <v>45010</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12459,7 +12459,7 @@
         <v>45084</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45012.62157407407</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45723.44292824074</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45114</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>45723.47810185186</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>45362</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>45838.63046296296</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>45838.66005787037</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44805.65100694444</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>45352.55664351852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>44614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>45933.45418981482</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>45932.51552083333</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>45932.49747685185</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>45932.50626157408</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>45932.51337962963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         <v>45932.53057870371</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>45932.53211805555</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13535,7 +13535,7 @@
         <v>45939.50087962963</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>44979.84893518518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>45159</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>45939.49789351852</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         <v>45156.70214120371</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>45937.6756712963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>44616.67115740741</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>45842.29508101852</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>45401.58033564815</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>45478.34103009259</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>45947.33725694445</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>45160</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>45951.44524305555</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>45174</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>45258</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>45758</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>45241</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>45677</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>45576.40886574074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>45952.47767361111</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>45952.48380787037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>45952.49305555555</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>45867</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14921,7 +14921,7 @@
         <v>45952.52392361111</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>45952.51895833333</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>45728.61679398148</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15107,7 +15107,7 @@
         <v>45867</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>45867.67050925926</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>45635</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>45715</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15345,7 +15345,7 @@
         <v>45952.52118055556</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>45956</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>45728.6249537037</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         <v>44638</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>44369</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15640,7 +15640,7 @@
         <v>45873.63458333333</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15697,7 +15697,7 @@
         <v>45870.63782407407</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15754,7 +15754,7 @@
         <v>45239.65712962963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         <v>45525</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>45875.36756944445</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>45874.29803240741</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44776</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>45875.35450231482</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>45875.37520833333</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45875.36108796296</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>45876.62699074074</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         <v>44778.31512731482</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>45876.3007175926</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>45876.62380787037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>45876.30645833333</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>45173</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>44837</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>45880.41182870371</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
         <v>45880.61226851852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>45880.61376157407</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16805,7 +16805,7 @@
         <v>45880.62028935185</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>44998</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>45880.60302083333</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16986,7 +16986,7 @@
         <v>44420</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>45880.42255787037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>45964.32967592592</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>45964.33197916667</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>45964.33086805556</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17286,7 +17286,7 @@
         <v>45882.3046412037</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17343,7 +17343,7 @@
         <v>45882.64409722222</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17400,7 +17400,7 @@
         <v>45971.34900462963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17462,7 +17462,7 @@
         <v>45971.34008101852</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17524,7 +17524,7 @@
         <v>45882.29001157408</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17581,7 +17581,7 @@
         <v>45881.34215277778</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>45968.57971064815</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>45761.60311342592</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17762,7 +17762,7 @@
         <v>45973.63927083334</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>45978.55758101852</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17886,7 +17886,7 @@
         <v>44967.47450231481</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>45616.48739583333</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>45978.55412037037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>45978.56460648148</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>45978.54403935185</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>45978.48106481481</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>45981.5586574074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>45761.60518518519</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>45170.45384259259</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18419,7 +18419,7 @@
         <v>46029.54597222222</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>45986.66369212963</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>46029.54340277778</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>46029.53724537037</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>45988</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>46031.4290625</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         <v>46031.43969907407</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>46031.45591435185</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44391</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>45988.38333333333</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>45427.33241898148</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>45583</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44657</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>45993.48270833334</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>45981.63077546296</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>45992.80664351852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>45723.46458333333</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
         <v>45600</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>45995.74844907408</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>46041.56409722222</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>46041.59275462963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>46024</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>46038.72572916667</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>45331.64133101852</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>46041.56473379629</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>46041.59184027778</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>46001</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>44377.40789351852</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>46043.68329861111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>46043.68909722222</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>45213</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45261.61064814815</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20343,7 +20343,7 @@
         <v>45261.61119212963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>45728.59774305556</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>44696.95393518519</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45279</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>45084</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>45775.39032407408</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>45398.66583333333</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>45149</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>45225.84559027778</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>45580</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
         <v>44777</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>45427.32600694444</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>46009.514375</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44916</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         <v>45559</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>44696</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>46020</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>44610</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         <v>46034</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21476,7 +21476,7 @@
         <v>45082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21533,7 +21533,7 @@
         <v>46058.58313657407</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>45582.75087962963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21652,7 +21652,7 @@
         <v>45096.43236111111</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21709,7 +21709,7 @@
         <v>45342</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21766,7 +21766,7 @@
         <v>44258</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21823,7 +21823,7 @@
         <v>45174</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>45583</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21947,7 +21947,7 @@
         <v>45761.60049768518</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>44869</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>45583</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22133,7 +22133,7 @@
         <v>44814</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22190,7 +22190,7 @@
         <v>44665</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22247,7 +22247,7 @@
         <v>45717.85300925926</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22309,7 +22309,7 @@
         <v>44756.38414351852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22366,7 +22366,7 @@
         <v>45126.54177083333</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22428,7 +22428,7 @@
         <v>45174</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22490,7 +22490,7 @@
         <v>45349.60084490741</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22547,7 +22547,7 @@
         <v>45349.60403935185</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>45478.34296296296</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>45478.34668981482</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>45235.89943287037</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>45195.59644675926</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22852,7 +22852,7 @@
         <v>45565</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>45225.8415625</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>45583</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23033,7 +23033,7 @@
         <v>45583.59436342592</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>45084.39814814815</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>45321.63527777778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>45728.60030092593</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>45049</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>45397</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>44424</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23447,7 +23447,7 @@
         <v>45580.93525462963</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23509,7 +23509,7 @@
         <v>45387.57523148148</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23566,7 +23566,7 @@
         <v>44982.51056712963</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23623,7 +23623,7 @@
         <v>45487.82888888889</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23680,7 +23680,7 @@
         <v>45668</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>44636</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23794,7 +23794,7 @@
         <v>45040</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         <v>45432.66449074074</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>45226</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>44839.495</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>45502</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>45728.62311342593</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24151,7 +24151,7 @@
         <v>45518.64752314815</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>45240</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>44862.36460648148</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24322,7 +24322,7 @@
         <v>45352.55505787037</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24384,7 +24384,7 @@
         <v>45272</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>45728.50564814815</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24503,7 +24503,7 @@
         <v>45439</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>45258</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24622,7 +24622,7 @@
         <v>44361</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24679,7 +24679,7 @@
         <v>45686.56048611111</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>44610.33194444444</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>45747</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>45198</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>45600</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>44496</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25031,7 +25031,7 @@
         <v>45776.51016203704</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>45776.51508101852</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25155,7 +25155,7 @@
         <v>45776.51268518518</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
         <v>45513</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25274,7 +25274,7 @@
         <v>44827.45902777778</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>45614.06451388889</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>45574.51289351852</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25450,7 +25450,7 @@
         <v>45432.66407407408</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25512,7 +25512,7 @@
         <v>45797</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>

--- a/Översikt HALLSBERG.xlsx
+++ b/Översikt HALLSBERG.xlsx
@@ -575,7 +575,7 @@
         <v>45881</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>45197</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>45845.86603009259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>45881.29332175926</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45720.35863425926</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>45954.52908564815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>45263</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>45105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>44657</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>45272</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45731.48357638889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>45443.59229166667</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>45190</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44593.67902777778</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>45971.33545138889</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44683</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>45191</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>45027</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>44315</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>45586.93074074074</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45817</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>45565</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>45197.59850694444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>44816</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>45932.49184027778</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>44762.77344907408</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>45282</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>45148</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44862.47282407407</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>44477</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>45002</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>45581.85145833333</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>44355</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>45894.43561342593</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>45894.44199074074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>45911.3615162037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>45705</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>45034</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44935</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>45952.48162037037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>45952.48967592593</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>44328</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>45880.59251157408</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>45880.56877314814</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>45971.33780092592</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>45981.55697916666</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>44937</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>46031.43295138889</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>45314</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>45002</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>44886.64203703704</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>45392.56644675926</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>45513</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>45362</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>45397.30905092593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         <v>44412.54666666667</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44488</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>44585</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>44238</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>44336.37702546296</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>44434.92876157408</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>44862.49034722222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44782.74493055556</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>44414.58070601852</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44705.64063657408</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44648.66108796297</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>44343.63606481482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44643</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44267.65956018519</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>44414.60469907407</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44335.4658912037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>44816</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>44862.44369212963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>44657</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>44616.68016203704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>44720</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>44533.67351851852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44651</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>44757.49012731481</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44839.49916666667</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44434.9337037037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44757.48751157407</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>44533.69733796296</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>45338</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>45397.31064814814</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>44615.58527777778</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>45425.65702546296</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
         <v>44490</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>45602.67336805556</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>44956.8174537037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>45714.44074074074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>45280.65321759259</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>44651</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>44531</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>45487.82146990741</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>45460.68122685186</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>45002</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8138,7 +8138,7 @@
         <v>44791</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>45540.40835648148</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>45582.87300925926</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>45432.55381944445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>45602.67616898148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>45467.36495370371</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>45226</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>44686.66105324074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         <v>45700.64421296296</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>45084.39651620371</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>44827</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>45229</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>45802.75168981482</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>45802.7302199074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>45802.74466435185</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>45176.68957175926</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>45751.49979166667</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45195</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>45802.73936342593</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>45700.64820601852</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>45159.57568287037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>45802.75615740741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>45727</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>45196</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>45810.66016203703</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>44676</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>45728.62653935186</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>45346.78131944445</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>45812.31252314815</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>45812</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>45700.63533564815</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>45812</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>45891.66709490741</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>45894.43824074074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         <v>45240</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>45817.48034722222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>45226.65587962963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>45894.4325</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         <v>45034</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>45894.44390046296</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>45562</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10565,7 +10565,7 @@
         <v>45726.5303587963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>45896</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>45821.68605324074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>45902.40634259259</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10803,7 +10803,7 @@
         <v>45702</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>44974.64246527778</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>45821.65877314815</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>45821.66652777778</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>45902.64018518518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>45821.68314814815</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>45098</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>45902.40513888889</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>45905.3868287037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>45905.67453703703</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>45813</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>45911.36046296296</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>45911.37391203704</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>45911.37444444445</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>44978</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>45190</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11760,7 +11760,7 @@
         <v>45034</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>45915.6069212963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>44960.55600694445</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>44960.56233796296</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>45427.32009259259</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
         <v>45916.37457175926</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>44627.6367824074</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>45545</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>45924.63674768519</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>45173.48231481481</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>44532.38833333334</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12402,7 +12402,7 @@
         <v>45010</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12459,7 +12459,7 @@
         <v>45084</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45012.62157407407</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45723.44292824074</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45114</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>45723.47810185186</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>45362</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>45838.63046296296</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>45838.66005787037</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44805.65100694444</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>45352.55664351852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>44614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>45933.45418981482</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>45932.51552083333</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>45932.49747685185</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>45932.50626157408</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>45932.51337962963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         <v>45932.53057870371</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>45932.53211805555</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13535,7 +13535,7 @@
         <v>45939.50087962963</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>44979.84893518518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>45159</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>45939.49789351852</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         <v>45156.70214120371</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>45937.6756712963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>44616.67115740741</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>45842.29508101852</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>45401.58033564815</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>45478.34103009259</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>45947.33725694445</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>45160</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>45951.44524305555</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>45174</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>45258</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>45758</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>45241</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>45677</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>45576.40886574074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>45952.47767361111</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>45952.48380787037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>45952.49305555555</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>45867</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14921,7 +14921,7 @@
         <v>45952.52392361111</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>45952.51895833333</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>45728.61679398148</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15107,7 +15107,7 @@
         <v>45867</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>45867.67050925926</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>45635</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>45715</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15345,7 +15345,7 @@
         <v>45952.52118055556</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>45956</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>45728.6249537037</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         <v>44638</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>44369</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15640,7 +15640,7 @@
         <v>45873.63458333333</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15697,7 +15697,7 @@
         <v>45870.63782407407</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15754,7 +15754,7 @@
         <v>45239.65712962963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         <v>45525</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>45875.36756944445</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>45874.29803240741</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44776</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>45875.35450231482</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>45875.37520833333</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45875.36108796296</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>45876.62699074074</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         <v>44778.31512731482</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>45876.3007175926</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>45876.62380787037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>45876.30645833333</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>45173</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>44837</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>45880.41182870371</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
         <v>45880.61226851852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>45880.61376157407</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16805,7 +16805,7 @@
         <v>45880.62028935185</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>44998</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>45880.60302083333</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16986,7 +16986,7 @@
         <v>44420</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>45880.42255787037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>45964.32967592592</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>45964.33197916667</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>45964.33086805556</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17286,7 +17286,7 @@
         <v>45882.3046412037</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17343,7 +17343,7 @@
         <v>45882.64409722222</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17400,7 +17400,7 @@
         <v>45971.34900462963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17462,7 +17462,7 @@
         <v>45971.34008101852</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17524,7 +17524,7 @@
         <v>45882.29001157408</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17581,7 +17581,7 @@
         <v>45881.34215277778</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>45968.57971064815</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>45761.60311342592</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17762,7 +17762,7 @@
         <v>45973.63927083334</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>45978.55758101852</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17886,7 +17886,7 @@
         <v>44967.47450231481</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>45616.48739583333</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>45978.55412037037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>45978.56460648148</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>45978.54403935185</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>45978.48106481481</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>45981.5586574074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>45761.60518518519</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>45170.45384259259</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18419,7 +18419,7 @@
         <v>46029.54597222222</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>45986.66369212963</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>46029.54340277778</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>46029.53724537037</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>45988</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>46031.4290625</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         <v>46031.43969907407</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>46031.45591435185</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44391</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>45988.38333333333</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>45427.33241898148</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>45583</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44657</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>45993.48270833334</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>45981.63077546296</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>45992.80664351852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>45723.46458333333</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
         <v>45600</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>45995.74844907408</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>46041.56409722222</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>46041.59275462963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>46024</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>46038.72572916667</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>45331.64133101852</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>46041.56473379629</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>46041.59184027778</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>46001</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>44377.40789351852</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>46043.68329861111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>46043.68909722222</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>45213</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45261.61064814815</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20343,7 +20343,7 @@
         <v>45261.61119212963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>45728.59774305556</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>44696.95393518519</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45279</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>45084</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>45775.39032407408</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>45398.66583333333</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>45149</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>45225.84559027778</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>45580</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
         <v>44777</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>45427.32600694444</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>46009.514375</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44916</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         <v>45559</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>44696</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>46020</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>44610</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         <v>46034</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21476,7 +21476,7 @@
         <v>45082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21533,7 +21533,7 @@
         <v>46058.58313657407</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>45582.75087962963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21652,7 +21652,7 @@
         <v>45096.43236111111</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21709,7 +21709,7 @@
         <v>45342</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21766,7 +21766,7 @@
         <v>44258</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21823,7 +21823,7 @@
         <v>45174</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>45583</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21947,7 +21947,7 @@
         <v>45761.60049768518</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>44869</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>45583</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22133,7 +22133,7 @@
         <v>44814</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22190,7 +22190,7 @@
         <v>44665</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22247,7 +22247,7 @@
         <v>45717.85300925926</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22309,7 +22309,7 @@
         <v>44756.38414351852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22366,7 +22366,7 @@
         <v>45126.54177083333</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22428,7 +22428,7 @@
         <v>45174</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22490,7 +22490,7 @@
         <v>45349.60084490741</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22547,7 +22547,7 @@
         <v>45349.60403935185</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>45478.34296296296</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>45478.34668981482</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>45235.89943287037</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>45195.59644675926</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22852,7 +22852,7 @@
         <v>45565</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>45225.8415625</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>45583</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23033,7 +23033,7 @@
         <v>45583.59436342592</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>45084.39814814815</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>45321.63527777778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>45728.60030092593</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>45049</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>45397</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>44424</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23447,7 +23447,7 @@
         <v>45580.93525462963</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23509,7 +23509,7 @@
         <v>45387.57523148148</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23566,7 +23566,7 @@
         <v>44982.51056712963</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23623,7 +23623,7 @@
         <v>45487.82888888889</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23680,7 +23680,7 @@
         <v>45668</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>44636</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23794,7 +23794,7 @@
         <v>45040</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         <v>45432.66449074074</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>45226</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>44839.495</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>45502</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>45728.62311342593</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24151,7 +24151,7 @@
         <v>45518.64752314815</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>45240</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>44862.36460648148</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24322,7 +24322,7 @@
         <v>45352.55505787037</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24384,7 +24384,7 @@
         <v>45272</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>45728.50564814815</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24503,7 +24503,7 @@
         <v>45439</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>45258</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24622,7 +24622,7 @@
         <v>44361</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24679,7 +24679,7 @@
         <v>45686.56048611111</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>44610.33194444444</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>45747</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>45198</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>45600</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>44496</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25031,7 +25031,7 @@
         <v>45776.51016203704</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>45776.51508101852</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25155,7 +25155,7 @@
         <v>45776.51268518518</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
         <v>45513</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25274,7 +25274,7 @@
         <v>44827.45902777778</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>45614.06451388889</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>45574.51289351852</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25450,7 +25450,7 @@
         <v>45432.66407407408</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25512,7 +25512,7 @@
         <v>45797</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>

--- a/Översikt HALLSBERG.xlsx
+++ b/Översikt HALLSBERG.xlsx
@@ -575,7 +575,7 @@
         <v>45881</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>45197</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>45845.86603009259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>45881.29332175926</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45720.35863425926</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>45954.52908564815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>45263</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>45105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>44657</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>45731.48357638889</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45272</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>45443.59229166667</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>45190</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44593.67902777778</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>45971.33545138889</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44683</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>45191</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>45027</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>44315</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>45148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45817</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>45586.93074074074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>45197.59850694444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>45932.49184027778</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>44816</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>44762.77344907408</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>45282</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44862.47282407407</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>44477</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>45002</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>45581.85145833333</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,14 +3625,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 28140-2021</t>
+          <t>A 55327-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44355</v>
+        <v>45971.33780092592</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,16 +3650,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3674,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3684,45 +3684,45 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Skogsklocka</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/artfynd/A 28140-2021 artfynd.xlsx", "A 28140-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/artfynd/A 55327-2025 artfynd.xlsx", "A 55327-2025")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/kartor/A 28140-2021 karta.png", "A 28140-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/kartor/A 55327-2025 karta.png", "A 55327-2025")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomål/A 28140-2021 FSC-klagomål.docx", "A 28140-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomål/A 55327-2025 FSC-klagomål.docx", "A 55327-2025")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomålsmail/A 28140-2021 FSC-klagomål mail.docx", "A 28140-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomålsmail/A 55327-2025 FSC-klagomål mail.docx", "A 55327-2025")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsyn/A 28140-2021 tillsynsbegäran.docx", "A 28140-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsyn/A 55327-2025 tillsynsbegäran.docx", "A 55327-2025")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsynsmail/A 28140-2021 tillsynsbegäran mail.docx", "A 28140-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsynsmail/A 55327-2025 tillsynsbegäran mail.docx", "A 55327-2025")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 40065-2025</t>
+          <t>A 28140-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45894.43561342593</v>
+        <v>44355</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3740,19 +3740,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
         <v>1</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -3767,52 +3767,52 @@
         <v>1</v>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Stor låsbräken</t>
+          <t>Skogsklocka</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/artfynd/A 40065-2025 artfynd.xlsx", "A 40065-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/artfynd/A 28140-2021 artfynd.xlsx", "A 28140-2021")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/kartor/A 40065-2025 karta.png", "A 40065-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/kartor/A 28140-2021 karta.png", "A 28140-2021")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomål/A 40065-2025 FSC-klagomål.docx", "A 40065-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomål/A 28140-2021 FSC-klagomål.docx", "A 28140-2021")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomålsmail/A 40065-2025 FSC-klagomål mail.docx", "A 40065-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomålsmail/A 28140-2021 FSC-klagomål mail.docx", "A 28140-2021")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsyn/A 40065-2025 tillsynsbegäran.docx", "A 40065-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsyn/A 28140-2021 tillsynsbegäran.docx", "A 28140-2021")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsynsmail/A 40065-2025 tillsynsbegäran mail.docx", "A 40065-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsynsmail/A 28140-2021 tillsynsbegäran mail.docx", "A 28140-2021")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 40071-2025</t>
+          <t>A 40065-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45894.44199074074</v>
+        <v>45894.43561342593</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3830,19 +3830,19 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>1</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3857,52 +3857,52 @@
         <v>1</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Stor låsbräken</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/artfynd/A 40071-2025 artfynd.xlsx", "A 40071-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/artfynd/A 40065-2025 artfynd.xlsx", "A 40065-2025")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/kartor/A 40071-2025 karta.png", "A 40071-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/kartor/A 40065-2025 karta.png", "A 40065-2025")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomål/A 40071-2025 FSC-klagomål.docx", "A 40071-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomål/A 40065-2025 FSC-klagomål.docx", "A 40065-2025")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomålsmail/A 40071-2025 FSC-klagomål mail.docx", "A 40071-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomålsmail/A 40065-2025 FSC-klagomål mail.docx", "A 40065-2025")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsyn/A 40071-2025 tillsynsbegäran.docx", "A 40071-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsyn/A 40065-2025 tillsynsbegäran.docx", "A 40065-2025")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsynsmail/A 40071-2025 tillsynsbegäran mail.docx", "A 40071-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsynsmail/A 40065-2025 tillsynsbegäran mail.docx", "A 40065-2025")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 43380-2025</t>
+          <t>A 40071-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45911.3615162037</v>
+        <v>45894.44199074074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3920,17 +3920,17 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>9.4</v>
+        <v>2.1</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
         <v>1</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -3954,49 +3954,45 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/artfynd/A 43380-2025 artfynd.xlsx", "A 43380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/artfynd/A 40071-2025 artfynd.xlsx", "A 40071-2025")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/kartor/A 43380-2025 karta.png", "A 43380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/kartor/A 40071-2025 karta.png", "A 40071-2025")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomål/A 43380-2025 FSC-klagomål.docx", "A 43380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomål/A 40071-2025 FSC-klagomål.docx", "A 40071-2025")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomålsmail/A 43380-2025 FSC-klagomål mail.docx", "A 43380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomålsmail/A 40071-2025 FSC-klagomål mail.docx", "A 40071-2025")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsyn/A 43380-2025 tillsynsbegäran.docx", "A 43380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsyn/A 40071-2025 tillsynsbegäran.docx", "A 40071-2025")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsynsmail/A 43380-2025 tillsynsbegäran mail.docx", "A 43380-2025")</f>
-        <v/>
-      </c>
-      <c r="Z38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/fåglar/A 43380-2025 prioriterade fågelarter.docx", "A 43380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsynsmail/A 40071-2025 tillsynsbegäran mail.docx", "A 40071-2025")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 7470-2025</t>
+          <t>A 57764-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45705</v>
+        <v>45981.55697916666</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4009,7 +4005,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>8.5</v>
+        <v>26.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -4043,45 +4039,45 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/artfynd/A 7470-2025 artfynd.xlsx", "A 7470-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/artfynd/A 57764-2025 artfynd.xlsx", "A 57764-2025")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/kartor/A 7470-2025 karta.png", "A 7470-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/kartor/A 57764-2025 karta.png", "A 57764-2025")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomål/A 7470-2025 FSC-klagomål.docx", "A 7470-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomål/A 57764-2025 FSC-klagomål.docx", "A 57764-2025")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomålsmail/A 7470-2025 FSC-klagomål mail.docx", "A 7470-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomålsmail/A 57764-2025 FSC-klagomål mail.docx", "A 57764-2025")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsyn/A 7470-2025 tillsynsbegäran.docx", "A 7470-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsyn/A 57764-2025 tillsynsbegäran.docx", "A 57764-2025")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsynsmail/A 7470-2025 tillsynsbegäran mail.docx", "A 7470-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsynsmail/A 57764-2025 tillsynsbegäran mail.docx", "A 57764-2025")</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 17018-2023</t>
+          <t>A 43380-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45034</v>
+        <v>45911.3615162037</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4093,8 +4089,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>5.6</v>
+        <v>9.4</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -4128,45 +4129,49 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>Gullviva</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/artfynd/A 17018-2023 artfynd.xlsx", "A 17018-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/artfynd/A 43380-2025 artfynd.xlsx", "A 43380-2025")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/kartor/A 17018-2023 karta.png", "A 17018-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/kartor/A 43380-2025 karta.png", "A 43380-2025")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomål/A 17018-2023 FSC-klagomål.docx", "A 17018-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomål/A 43380-2025 FSC-klagomål.docx", "A 43380-2025")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomålsmail/A 17018-2023 FSC-klagomål mail.docx", "A 17018-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomålsmail/A 43380-2025 FSC-klagomål mail.docx", "A 43380-2025")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsyn/A 17018-2023 tillsynsbegäran.docx", "A 17018-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsyn/A 43380-2025 tillsynsbegäran.docx", "A 43380-2025")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsynsmail/A 17018-2023 tillsynsbegäran mail.docx", "A 17018-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsynsmail/A 43380-2025 tillsynsbegäran mail.docx", "A 43380-2025")</f>
+        <v/>
+      </c>
+      <c r="Z40">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/fåglar/A 43380-2025 prioriterade fågelarter.docx", "A 43380-2025")</f>
         <v/>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 1195-2023</t>
+          <t>A 7470-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44935</v>
+        <v>45705</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4179,7 +4184,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>11.2</v>
+        <v>8.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -4213,45 +4218,45 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>Hasselticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/artfynd/A 1195-2023 artfynd.xlsx", "A 1195-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/artfynd/A 7470-2025 artfynd.xlsx", "A 7470-2025")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/kartor/A 1195-2023 karta.png", "A 1195-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/kartor/A 7470-2025 karta.png", "A 7470-2025")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomål/A 1195-2023 FSC-klagomål.docx", "A 1195-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomål/A 7470-2025 FSC-klagomål.docx", "A 7470-2025")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomålsmail/A 1195-2023 FSC-klagomål mail.docx", "A 1195-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomålsmail/A 7470-2025 FSC-klagomål mail.docx", "A 7470-2025")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsyn/A 1195-2023 tillsynsbegäran.docx", "A 1195-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsyn/A 7470-2025 tillsynsbegäran.docx", "A 7470-2025")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsynsmail/A 1195-2023 tillsynsbegäran mail.docx", "A 1195-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsynsmail/A 7470-2025 tillsynsbegäran mail.docx", "A 7470-2025")</f>
         <v/>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 37704-2025</t>
+          <t>A 17018-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45880.59251157408</v>
+        <v>45034</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4263,19 +4268,14 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>1.9</v>
+        <v>5.6</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -4303,45 +4303,45 @@
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Gullviva</t>
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/artfynd/A 37704-2025 artfynd.xlsx", "A 37704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/artfynd/A 17018-2023 artfynd.xlsx", "A 17018-2023")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/kartor/A 37704-2025 karta.png", "A 37704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/kartor/A 17018-2023 karta.png", "A 17018-2023")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomål/A 37704-2025 FSC-klagomål.docx", "A 37704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomål/A 17018-2023 FSC-klagomål.docx", "A 17018-2023")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomålsmail/A 37704-2025 FSC-klagomål mail.docx", "A 37704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomålsmail/A 17018-2023 FSC-klagomål mail.docx", "A 17018-2023")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsyn/A 37704-2025 tillsynsbegäran.docx", "A 37704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsyn/A 17018-2023 tillsynsbegäran.docx", "A 17018-2023")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsynsmail/A 37704-2025 tillsynsbegäran mail.docx", "A 37704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsynsmail/A 17018-2023 tillsynsbegäran mail.docx", "A 17018-2023")</f>
         <v/>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 37691-2025</t>
+          <t>A 51919-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45880.56877314814</v>
+        <v>45952.48162037037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4359,19 +4359,19 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>1</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -4386,52 +4386,52 @@
         <v>1</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Stor låsbräken</t>
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/artfynd/A 37691-2025 artfynd.xlsx", "A 37691-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/artfynd/A 51919-2025 artfynd.xlsx", "A 51919-2025")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/kartor/A 37691-2025 karta.png", "A 37691-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/kartor/A 51919-2025 karta.png", "A 51919-2025")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomål/A 37691-2025 FSC-klagomål.docx", "A 37691-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomål/A 51919-2025 FSC-klagomål.docx", "A 51919-2025")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomålsmail/A 37691-2025 FSC-klagomål mail.docx", "A 37691-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomålsmail/A 51919-2025 FSC-klagomål mail.docx", "A 51919-2025")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsyn/A 37691-2025 tillsynsbegäran.docx", "A 37691-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsyn/A 51919-2025 tillsynsbegäran.docx", "A 51919-2025")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsynsmail/A 37691-2025 tillsynsbegäran mail.docx", "A 37691-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsynsmail/A 51919-2025 tillsynsbegäran mail.docx", "A 51919-2025")</f>
         <v/>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 51919-2025</t>
+          <t>A 51922-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45952.48162037037</v>
+        <v>45952.48967592593</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4449,19 +4449,19 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
         <v>1</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -4476,52 +4476,52 @@
         <v>1</v>
       </c>
       <c r="P44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
       </c>
       <c r="R44" s="2" t="inlineStr">
         <is>
-          <t>Stor låsbräken</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/artfynd/A 51919-2025 artfynd.xlsx", "A 51919-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/artfynd/A 51922-2025 artfynd.xlsx", "A 51922-2025")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/kartor/A 51919-2025 karta.png", "A 51919-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/kartor/A 51922-2025 karta.png", "A 51922-2025")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomål/A 51919-2025 FSC-klagomål.docx", "A 51919-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomål/A 51922-2025 FSC-klagomål.docx", "A 51922-2025")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomålsmail/A 51919-2025 FSC-klagomål mail.docx", "A 51919-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomålsmail/A 51922-2025 FSC-klagomål mail.docx", "A 51922-2025")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsyn/A 51919-2025 tillsynsbegäran.docx", "A 51919-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsyn/A 51922-2025 tillsynsbegäran.docx", "A 51922-2025")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsynsmail/A 51919-2025 tillsynsbegäran mail.docx", "A 51919-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsynsmail/A 51922-2025 tillsynsbegäran mail.docx", "A 51922-2025")</f>
         <v/>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 51922-2025</t>
+          <t>A 1195-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45952.48967592593</v>
+        <v>44935</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4533,22 +4533,17 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>2.1</v>
+        <v>11.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4563,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -4573,45 +4568,45 @@
       </c>
       <c r="R45" s="2" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Hasselticka</t>
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/artfynd/A 51922-2025 artfynd.xlsx", "A 51922-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/artfynd/A 1195-2023 artfynd.xlsx", "A 1195-2023")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/kartor/A 51922-2025 karta.png", "A 51922-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/kartor/A 1195-2023 karta.png", "A 1195-2023")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomål/A 51922-2025 FSC-klagomål.docx", "A 51922-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomål/A 1195-2023 FSC-klagomål.docx", "A 1195-2023")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomålsmail/A 51922-2025 FSC-klagomål mail.docx", "A 51922-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomålsmail/A 1195-2023 FSC-klagomål mail.docx", "A 1195-2023")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsyn/A 51922-2025 tillsynsbegäran.docx", "A 51922-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsyn/A 1195-2023 tillsynsbegäran.docx", "A 1195-2023")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsynsmail/A 51922-2025 tillsynsbegäran mail.docx", "A 51922-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsynsmail/A 1195-2023 tillsynsbegäran mail.docx", "A 1195-2023")</f>
         <v/>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 55327-2025</t>
+          <t>A 1250-2026</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45971.33780092592</v>
+        <v>46031.43295138889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4629,17 +4624,17 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4.4</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
         <v>1</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
@@ -4653,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -4663,45 +4658,49 @@
       </c>
       <c r="R46" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/artfynd/A 55327-2025 artfynd.xlsx", "A 55327-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/artfynd/A 1250-2026 artfynd.xlsx", "A 1250-2026")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/kartor/A 55327-2025 karta.png", "A 55327-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/kartor/A 1250-2026 karta.png", "A 1250-2026")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomål/A 55327-2025 FSC-klagomål.docx", "A 55327-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomål/A 1250-2026 FSC-klagomål.docx", "A 1250-2026")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomålsmail/A 55327-2025 FSC-klagomål mail.docx", "A 55327-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomålsmail/A 1250-2026 FSC-klagomål mail.docx", "A 1250-2026")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsyn/A 55327-2025 tillsynsbegäran.docx", "A 55327-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsyn/A 1250-2026 tillsynsbegäran.docx", "A 1250-2026")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsynsmail/A 55327-2025 tillsynsbegäran mail.docx", "A 55327-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsynsmail/A 1250-2026 tillsynsbegäran mail.docx", "A 1250-2026")</f>
+        <v/>
+      </c>
+      <c r="Z46">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/fåglar/A 1250-2026 prioriterade fågelarter.docx", "A 1250-2026")</f>
         <v/>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 22962-2021</t>
+          <t>A 37704-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44328</v>
+        <v>45880.59251157408</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4713,8 +4712,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>4.4</v>
+        <v>1.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4748,45 +4752,45 @@
       </c>
       <c r="R47" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/artfynd/A 22962-2021 artfynd.xlsx", "A 22962-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/artfynd/A 37704-2025 artfynd.xlsx", "A 37704-2025")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/kartor/A 22962-2021 karta.png", "A 22962-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/kartor/A 37704-2025 karta.png", "A 37704-2025")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomål/A 22962-2021 FSC-klagomål.docx", "A 22962-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomål/A 37704-2025 FSC-klagomål.docx", "A 37704-2025")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomålsmail/A 22962-2021 FSC-klagomål mail.docx", "A 22962-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomålsmail/A 37704-2025 FSC-klagomål mail.docx", "A 37704-2025")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsyn/A 22962-2021 tillsynsbegäran.docx", "A 22962-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsyn/A 37704-2025 tillsynsbegäran.docx", "A 37704-2025")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsynsmail/A 22962-2021 tillsynsbegäran mail.docx", "A 22962-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsynsmail/A 37704-2025 tillsynsbegäran mail.docx", "A 37704-2025")</f>
         <v/>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 57764-2025</t>
+          <t>A 37691-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45981.55697916666</v>
+        <v>45880.56877314814</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4798,18 +4802,23 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>26.3</v>
+        <v>2.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
         <v>1</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
       <c r="K48" t="n">
         <v>0</v>
       </c>
@@ -4823,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
@@ -4833,45 +4842,45 @@
       </c>
       <c r="R48" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/artfynd/A 57764-2025 artfynd.xlsx", "A 57764-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/artfynd/A 37691-2025 artfynd.xlsx", "A 37691-2025")</f>
         <v/>
       </c>
       <c r="T48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/kartor/A 57764-2025 karta.png", "A 57764-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/kartor/A 37691-2025 karta.png", "A 37691-2025")</f>
         <v/>
       </c>
       <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomål/A 57764-2025 FSC-klagomål.docx", "A 57764-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomål/A 37691-2025 FSC-klagomål.docx", "A 37691-2025")</f>
         <v/>
       </c>
       <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomålsmail/A 57764-2025 FSC-klagomål mail.docx", "A 57764-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomålsmail/A 37691-2025 FSC-klagomål mail.docx", "A 37691-2025")</f>
         <v/>
       </c>
       <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsyn/A 57764-2025 tillsynsbegäran.docx", "A 57764-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsyn/A 37691-2025 tillsynsbegäran.docx", "A 37691-2025")</f>
         <v/>
       </c>
       <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsynsmail/A 57764-2025 tillsynsbegäran mail.docx", "A 57764-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsynsmail/A 37691-2025 tillsynsbegäran mail.docx", "A 37691-2025")</f>
         <v/>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 1250-2026</t>
+          <t>A 22962-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>46031.43295138889</v>
+        <v>44328</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4883,22 +4892,17 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>4.4</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>1</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -4913,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
@@ -4923,35 +4927,31 @@
       </c>
       <c r="R49" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/artfynd/A 1250-2026 artfynd.xlsx", "A 1250-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/artfynd/A 22962-2021 artfynd.xlsx", "A 22962-2021")</f>
         <v/>
       </c>
       <c r="T49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/kartor/A 1250-2026 karta.png", "A 1250-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/kartor/A 22962-2021 karta.png", "A 22962-2021")</f>
         <v/>
       </c>
       <c r="V49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomål/A 1250-2026 FSC-klagomål.docx", "A 1250-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomål/A 22962-2021 FSC-klagomål.docx", "A 22962-2021")</f>
         <v/>
       </c>
       <c r="W49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomålsmail/A 1250-2026 FSC-klagomål mail.docx", "A 1250-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/klagomålsmail/A 22962-2021 FSC-klagomål mail.docx", "A 22962-2021")</f>
         <v/>
       </c>
       <c r="X49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsyn/A 1250-2026 tillsynsbegäran.docx", "A 1250-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsyn/A 22962-2021 tillsynsbegäran.docx", "A 22962-2021")</f>
         <v/>
       </c>
       <c r="Y49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsynsmail/A 1250-2026 tillsynsbegäran mail.docx", "A 1250-2026")</f>
-        <v/>
-      </c>
-      <c r="Z49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1861/fåglar/A 1250-2026 prioriterade fågelarter.docx", "A 1250-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1861/tillsynsmail/A 22962-2021 tillsynsbegäran mail.docx", "A 22962-2021")</f>
         <v/>
       </c>
     </row>
@@ -4965,7 +4965,7 @@
         <v>44937</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>45314</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>45002</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>44886.64203703704</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>45392.56644675926</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>45513</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>45362</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>45397.30905092593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5662,14 +5662,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 39057-2021</t>
+          <t>A 58462-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44412.54666666667</v>
+        <v>44488</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5719,14 +5719,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 58462-2021</t>
+          <t>A 39057-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44488</v>
+        <v>44412.54666666667</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5783,7 +5783,7 @@
         <v>44585</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>44336.37702546296</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         <v>44434.92876157408</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>44862.49034722222</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>44782.74493055556</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>44414.58070601852</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         <v>44705.64063657408</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         <v>44648.66108796297</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44343.63606481482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>44643</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>44267.65956018519</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44414.60469907407</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44335.4658912037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44816</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6594,14 +6594,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 49645-2022</t>
+          <t>A 15086-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44862.44369212963</v>
+        <v>44657</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6614,7 +6614,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.7</v>
+        <v>5.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6651,14 +6651,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 15086-2022</t>
+          <t>A 49645-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44657</v>
+        <v>44862.44369212963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5.1</v>
+        <v>1.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>44616.68016203704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>44720</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>44533.67351851852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>44651</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>44757.49012731481</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>44839.49916666667</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>44434.9337037037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>44757.48751157407</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44533.69733796296</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>45338</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>45397.31064814814</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>44615.58527777778</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>44490</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7474,14 +7474,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 4587-2023</t>
+          <t>A 18556-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44956.8174537037</v>
+        <v>45425.65702546296</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7536,14 +7536,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 50891-2024</t>
+          <t>A 4587-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45602.67336805556</v>
+        <v>44956.8174537037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7555,8 +7555,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7600,7 +7605,7 @@
         <v>45714.44074074074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7657,7 +7662,7 @@
         <v>45280.65321759259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7712,14 +7717,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 14333-2022</t>
+          <t>A 50891-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44651</v>
+        <v>45602.67336805556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7732,7 +7737,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7769,14 +7774,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 69230-2021</t>
+          <t>A 14333-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44531</v>
+        <v>44651</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7788,13 +7793,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7831,14 +7831,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 18556-2024</t>
+          <t>A 69230-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45425.65702546296</v>
+        <v>44531</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7852,11 +7852,11 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7893,14 +7893,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 24760-2024</t>
+          <t>A 55329-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45460.68122685186</v>
+        <v>45971.34008101852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7912,8 +7912,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7950,14 +7955,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 29907-2024</t>
+          <t>A 55210-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45487.82146990741</v>
+        <v>45968.57971064815</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7969,8 +7974,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -8007,14 +8017,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 13168-2023</t>
+          <t>A 29907-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45002</v>
+        <v>45487.82146990741</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8026,13 +8036,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -8069,14 +8074,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 34227-2022</t>
+          <t>A 24760-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44791</v>
+        <v>45460.68122685186</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8088,13 +8093,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -8131,14 +8131,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 19709-2024</t>
+          <t>A 13168-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45432.55381944445</v>
+        <v>45002</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8150,8 +8150,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -8188,14 +8193,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 41595-2022</t>
+          <t>A 16441-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44827.45902777778</v>
+        <v>45751.49979166667</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8209,11 +8214,11 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -8250,14 +8255,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 53247-2024</t>
+          <t>A 41595-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45614.06451388889</v>
+        <v>44827.45902777778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8269,8 +8274,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -8307,14 +8317,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 46602-2024</t>
+          <t>A 53247-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45582.87300925926</v>
+        <v>45614.06451388889</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8327,7 +8337,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -8364,14 +8374,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 37277-2024</t>
+          <t>A 6779-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45540.40835648148</v>
+        <v>45700.64820601852</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8384,7 +8394,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -8421,14 +8431,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 16441-2025</t>
+          <t>A 34227-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45751.49979166667</v>
+        <v>44791</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8442,11 +8452,11 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -8483,14 +8493,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 50893-2024</t>
+          <t>A 56061-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45602.67616898148</v>
+        <v>45973.63927083334</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8502,8 +8512,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8540,14 +8555,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 6779-2025</t>
+          <t>A 11726-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45700.64820601852</v>
+        <v>45727</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8560,7 +8575,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8597,14 +8612,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 25805-2024</t>
+          <t>A 19709-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45467.36495370371</v>
+        <v>45432.55381944445</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8616,13 +8631,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8666,7 +8676,7 @@
         <v>45574.51289351852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8716,14 +8726,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 19750-2024</t>
+          <t>A 46602-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45432.66407407408</v>
+        <v>45582.87300925926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8735,13 +8745,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8778,14 +8783,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 11726-2025</t>
+          <t>A 37277-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45727</v>
+        <v>45540.40835648148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8798,7 +8803,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8835,14 +8840,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 24231-2025</t>
+          <t>A 19750-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45797</v>
+        <v>45432.66407407408</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8856,11 +8861,11 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>10.4</v>
+        <v>3.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8897,14 +8902,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 53009-2023</t>
+          <t>A 6766-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45226</v>
+        <v>45700.63533564815</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8916,13 +8921,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8959,14 +8959,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 6776-2025</t>
+          <t>A 24231-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45700.64421296296</v>
+        <v>45797</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8978,8 +8978,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>3.3</v>
+        <v>10.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -9016,14 +9021,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 6766-2025</t>
+          <t>A 50893-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45700.63533564815</v>
+        <v>45602.67616898148</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9036,7 +9041,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -9080,7 +9085,7 @@
         <v>45891.66709490741</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9130,14 +9135,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 25473-2025</t>
+          <t>A 40067-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45802.75168981482</v>
+        <v>45894.43824074074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9155,7 +9160,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -9192,14 +9197,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 40067-2025</t>
+          <t>A 25805-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45894.43824074074</v>
+        <v>45467.36495370371</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9213,11 +9218,11 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -9254,14 +9259,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 25470-2025</t>
+          <t>A 56885-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45802.7302199074</v>
+        <v>45978.55758101852</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9279,7 +9284,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -9316,14 +9321,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 25472-2025</t>
+          <t>A 40063-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45802.74466435185</v>
+        <v>45894.4325</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9341,7 +9346,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.9</v>
+        <v>6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -9378,14 +9383,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 18512-2022</t>
+          <t>A 40072-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44686.66105324074</v>
+        <v>45894.44390046296</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9397,8 +9402,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -9435,14 +9445,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 40063-2025</t>
+          <t>A 25473-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45894.4325</v>
+        <v>45802.75168981482</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9460,7 +9470,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -9497,14 +9507,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 25471-2025</t>
+          <t>A 56881-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45802.73936342593</v>
+        <v>45978.55412037037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9522,7 +9532,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9559,14 +9569,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 24628-2023</t>
+          <t>A 56890-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45084.39651620371</v>
+        <v>45978.56460648148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9578,8 +9588,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>6</v>
+        <v>0.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9616,14 +9631,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 25474-2025</t>
+          <t>A 25470-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45802.75615740741</v>
+        <v>45802.7302199074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9641,7 +9656,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9678,14 +9693,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 41602-2022</t>
+          <t>A 25472-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44827</v>
+        <v>45802.74466435185</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9699,11 +9714,11 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9740,14 +9755,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 40072-2025</t>
+          <t>A 56878-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45894.44390046296</v>
+        <v>45978.54403935185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9802,14 +9817,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 53329-2023</t>
+          <t>A 56839-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45229</v>
+        <v>45978.48106481481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9822,7 +9837,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>5.1</v>
+        <v>1.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9859,14 +9874,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 26842-2025</t>
+          <t>A 25471-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45810.66016203703</v>
+        <v>45802.73936342593</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9878,8 +9893,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9916,14 +9936,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 41886-2023</t>
+          <t>A 53009-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45176.68957175926</v>
+        <v>45226</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9935,8 +9955,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9973,14 +9998,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 45862-2023</t>
+          <t>A 6776-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45195</v>
+        <v>45700.64421296296</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9992,13 +10017,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>7.8</v>
+        <v>3.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -10035,14 +10055,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 41468-2025</t>
+          <t>A 25474-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45896</v>
+        <v>45802.75615740741</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10054,8 +10074,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>4.8</v>
+        <v>0.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -10092,14 +10117,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 27146-2025</t>
+          <t>A 41468-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45812.31252314815</v>
+        <v>45896</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10112,7 +10137,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>6.2</v>
+        <v>4.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -10149,14 +10174,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 27147-2025</t>
+          <t>A 41695-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45812</v>
+        <v>45902.40634259259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10169,7 +10194,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -10206,14 +10231,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 41695-2025</t>
+          <t>A 18512-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45902.40634259259</v>
+        <v>44686.66105324074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10226,7 +10251,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -10263,14 +10288,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 27148-2025</t>
+          <t>A 24628-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45812</v>
+        <v>45084.39651620371</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10283,7 +10308,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.1</v>
+        <v>6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -10327,7 +10352,7 @@
         <v>45902.64018518518</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10377,14 +10402,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 37698-2023</t>
+          <t>A 57766-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45159.57568287037</v>
+        <v>45981.5586574074</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10397,7 +10422,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -10434,14 +10459,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 27915-2025</t>
+          <t>A 41602-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45817.48034722222</v>
+        <v>44827</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10455,11 +10480,11 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -10503,7 +10528,7 @@
         <v>45902.40513888889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10560,7 +10585,7 @@
         <v>45905.3868287037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10622,7 +10647,7 @@
         <v>45905.67453703703</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10672,14 +10697,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 46235-2023</t>
+          <t>A 26842-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45196</v>
+        <v>45810.66016203703</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10691,13 +10716,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>7</v>
+        <v>1.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10734,14 +10754,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 29165-2025</t>
+          <t>A 53329-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45821.68605324074</v>
+        <v>45229</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10753,13 +10773,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10796,14 +10811,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 29157-2025</t>
+          <t>A 27146-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45821.65877314815</v>
+        <v>45812.31252314815</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10815,13 +10830,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>10.3</v>
+        <v>6.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10858,14 +10868,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 29161-2025</t>
+          <t>A 27147-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45821.66652777778</v>
+        <v>45812</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10877,13 +10887,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10920,14 +10925,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 29164-2025</t>
+          <t>A 41886-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45821.68314814815</v>
+        <v>45176.68957175926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10939,13 +10944,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10982,14 +10982,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 17003-2022</t>
+          <t>A 27148-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44676</v>
+        <v>45812</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -11039,14 +11039,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 12019-2025</t>
+          <t>A 45862-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45728.62653935186</v>
+        <v>45195</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11060,11 +11060,11 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.6</v>
+        <v>7.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -11101,14 +11101,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 7492-2024</t>
+          <t>A 27915-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45346.78131944445</v>
+        <v>45817.48034722222</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11120,8 +11120,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -11158,14 +11163,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 27659-2025</t>
+          <t>A 43379-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45813</v>
+        <v>45911.36046296296</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11177,8 +11182,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -11215,14 +11225,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 56270-2023</t>
+          <t>A 43396-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45240</v>
+        <v>45911.37391203704</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11234,8 +11244,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>1.4</v>
+        <v>4.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -11272,14 +11287,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 43379-2025</t>
+          <t>A 43397-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45911.36046296296</v>
+        <v>45911.37444444445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11297,7 +11312,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -11334,14 +11349,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 43396-2025</t>
+          <t>A 37698-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45911.37391203704</v>
+        <v>45159.57568287037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11353,13 +11368,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -11396,14 +11406,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 43397-2025</t>
+          <t>A 44177-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45911.37444444445</v>
+        <v>45915.6069212963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11415,13 +11425,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -11458,14 +11463,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 53011-2023</t>
+          <t>A 44305-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45226.65587962963</v>
+        <v>45916.37457175926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11477,13 +11482,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -11520,14 +11520,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 44177-2025</t>
+          <t>A 29165-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45915.6069212963</v>
+        <v>45821.68605324074</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11539,8 +11539,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>5.3</v>
+        <v>1.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -11577,14 +11582,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 5604-2023</t>
+          <t>A 46235-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44960.55600694445</v>
+        <v>45196</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11596,8 +11601,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>0.8</v>
+        <v>7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -11634,14 +11644,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 5608-2023</t>
+          <t>A 29157-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44960.56233796296</v>
+        <v>45821.65877314815</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11653,8 +11663,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>2.4</v>
+        <v>10.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11691,14 +11706,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 17017-2023</t>
+          <t>A 29161-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45034</v>
+        <v>45821.66652777778</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11710,8 +11725,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11748,14 +11768,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 42156-2024</t>
+          <t>A 29164-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45562</v>
+        <v>45821.68314814815</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11767,8 +11787,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11805,14 +11830,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 11358-2025</t>
+          <t>A 17003-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45726.5303587963</v>
+        <v>44676</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11824,13 +11849,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11867,14 +11887,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 44305-2025</t>
+          <t>A 12019-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45916.37457175926</v>
+        <v>45728.62653935186</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11886,8 +11906,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11924,14 +11949,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 7191-2025</t>
+          <t>A 7492-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45702</v>
+        <v>45346.78131944445</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11944,7 +11969,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11981,14 +12006,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 8278-2023</t>
+          <t>A 27659-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44974.64246527778</v>
+        <v>45813</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12000,13 +12025,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -12043,14 +12063,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 62990-2025</t>
+          <t>A 46160-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46009.514375</v>
+        <v>45924.63674768519</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12068,7 +12088,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -12105,14 +12125,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 29735-2023</t>
+          <t>A 56270-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45098</v>
+        <v>45240</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12125,7 +12145,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -12162,14 +12182,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 32606-2025</t>
+          <t>A 53011-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45838.63046296296</v>
+        <v>45226.65587962963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12181,8 +12201,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -12219,14 +12244,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 32642-2025</t>
+          <t>A 5604-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45838.66005787037</v>
+        <v>44960.55600694445</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12239,7 +12264,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>9.199999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -12276,14 +12301,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 46160-2025</t>
+          <t>A 5608-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45924.63674768519</v>
+        <v>44960.56233796296</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12295,13 +12320,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -12338,14 +12358,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 9663-2023</t>
+          <t>A 17017-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44978</v>
+        <v>45034</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12358,7 +12378,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -12395,14 +12415,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 44811-2023</t>
+          <t>A 42156-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45190</v>
+        <v>45562</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12414,13 +12434,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -12457,14 +12472,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 17016-2023</t>
+          <t>A 11358-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45034</v>
+        <v>45726.5303587963</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12476,8 +12491,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -12514,14 +12534,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 33729-2025</t>
+          <t>A 7191-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45842.29508101852</v>
+        <v>45702</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12533,13 +12553,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>7.5</v>
+        <v>1.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -12576,14 +12591,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 18891-2024</t>
+          <t>A 8278-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45427.32009259259</v>
+        <v>44974.64246527778</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12595,8 +12610,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -12633,14 +12653,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 10863-2022</t>
+          <t>A 29735-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44627.6367824074</v>
+        <v>45098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12653,7 +12673,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>6.9</v>
+        <v>0.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12690,14 +12710,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 38344-2024</t>
+          <t>A 48183-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45545</v>
+        <v>45933.45418981482</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12709,8 +12729,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12747,14 +12772,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 48183-2025</t>
+          <t>A 32606-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45933.45418981482</v>
+        <v>45838.63046296296</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12766,13 +12791,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12816,7 +12836,7 @@
         <v>45932.51552083333</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12871,14 +12891,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 47901-2025</t>
+          <t>A 32642-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45932.49747685185</v>
+        <v>45838.66005787037</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12890,13 +12910,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>1.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12933,14 +12948,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 47906-2025</t>
+          <t>A 47901-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45932.50626157408</v>
+        <v>45932.49747685185</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12958,7 +12973,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12995,14 +13010,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 47913-2025</t>
+          <t>A 47906-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45932.51337962963</v>
+        <v>45932.50626157408</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13020,7 +13035,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -13057,14 +13072,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 47920-2025</t>
+          <t>A 47913-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45932.53057870371</v>
+        <v>45932.51337962963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13082,7 +13097,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -13119,14 +13134,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 47921-2025</t>
+          <t>A 47920-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45932.53211805555</v>
+        <v>45932.53057870371</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13144,7 +13159,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -13181,14 +13196,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 40968-2023</t>
+          <t>A 47921-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45173.48231481481</v>
+        <v>45932.53211805555</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13206,7 +13221,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -13243,14 +13258,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 69607-2021</t>
+          <t>A 9663-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44532.38833333334</v>
+        <v>44978</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13262,13 +13277,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -13305,14 +13315,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 49584-2025</t>
+          <t>A 44811-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45939.50087962963</v>
+        <v>45190</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13326,11 +13336,11 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -13367,14 +13377,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 14288-2023</t>
+          <t>A 17016-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45010</v>
+        <v>45034</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13387,7 +13397,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -13424,14 +13434,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 45300-2024</t>
+          <t>A 49584-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45576.40886574074</v>
+        <v>45939.50087962963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13443,8 +13453,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -13481,14 +13496,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 36292-2025</t>
+          <t>A 58765-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45867</v>
+        <v>45986.66369212963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13502,11 +13517,11 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.8</v>
+        <v>4.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -13543,14 +13558,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 24801-2023</t>
+          <t>A 18891-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45084</v>
+        <v>45427.32009259259</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13562,13 +13577,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>5.1</v>
+        <v>2.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -13612,7 +13622,7 @@
         <v>45939.49789351852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13667,14 +13677,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 12008-2025</t>
+          <t>A 49091-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45728.61679398148</v>
+        <v>45937.6756712963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13686,13 +13696,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13729,14 +13734,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 36291-2025</t>
+          <t>A 33729-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45867</v>
+        <v>45842.29508101852</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13750,11 +13755,11 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13791,14 +13796,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 36294-2025</t>
+          <t>A 10863-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45867.67050925926</v>
+        <v>44627.6367824074</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13810,13 +13815,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>0.9</v>
+        <v>6.9</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13853,14 +13853,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 49091-2025</t>
+          <t>A 38344-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45937.6756712963</v>
+        <v>45545</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13910,14 +13910,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 14456-2023</t>
+          <t>A 50980-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45012.62157407407</v>
+        <v>45947.33725694445</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13929,8 +13929,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>4.4</v>
+        <v>1.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13967,14 +13972,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 36789-2025</t>
+          <t>A 40968-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45873.63458333333</v>
+        <v>45173.48231481481</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13986,8 +13991,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>4.7</v>
+        <v>2.8</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -14024,14 +14034,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 36619-2025</t>
+          <t>A 69607-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45870.63782407407</v>
+        <v>44532.38833333334</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14043,8 +14053,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -14081,14 +14096,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 11003-2025</t>
+          <t>A 14288-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45723.44292824074</v>
+        <v>45010</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14101,7 +14116,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>6.8</v>
+        <v>2.3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -14138,14 +14153,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 31290-2023</t>
+          <t>A 51642-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45114</v>
+        <v>45951.44524305555</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14157,8 +14172,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -14195,14 +14215,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 11034-2025</t>
+          <t>A 24801-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45723.47810185186</v>
+        <v>45084</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14214,8 +14234,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -14252,14 +14277,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 9645-2024</t>
+          <t>A 51916-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45362</v>
+        <v>45952.47767361111</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14277,7 +14302,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -14314,14 +14339,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 37054-2025</t>
+          <t>A 51920-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45875.36756944445</v>
+        <v>45952.48380787037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14333,8 +14358,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -14371,14 +14401,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 36824-2025</t>
+          <t>A 51924-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45874.29803240741</v>
+        <v>45952.49305555555</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14390,8 +14420,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -14428,14 +14463,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 50980-2025</t>
+          <t>A 51942-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45947.33725694445</v>
+        <v>45952.52392361111</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14453,7 +14488,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -14490,14 +14525,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 37048-2025</t>
+          <t>A 14456-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45875.35450231482</v>
+        <v>45012.62157407407</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14510,7 +14545,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>7</v>
+        <v>4.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -14547,14 +14582,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 37059-2025</t>
+          <t>A 51938-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45875.37520833333</v>
+        <v>45952.51895833333</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14566,8 +14601,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>8.199999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -14604,14 +14644,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 37049-2025</t>
+          <t>A 45300-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45875.36108796296</v>
+        <v>45576.40886574074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14624,7 +14664,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -14661,14 +14701,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 37323-2025</t>
+          <t>A 51940-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45876.62699074074</v>
+        <v>45952.52118055556</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14686,7 +14726,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -14723,14 +14763,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 37228-2025</t>
+          <t>A 36292-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45876.3007175926</v>
+        <v>45867</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14742,8 +14782,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G211" t="n">
-        <v>16.2</v>
+        <v>1.8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -14780,14 +14825,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 37321-2025</t>
+          <t>A 11003-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45876.62380787037</v>
+        <v>45723.44292824074</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14799,13 +14844,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>6.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -14842,14 +14882,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 36880-2022</t>
+          <t>A 31290-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44805.65100694444</v>
+        <v>45114</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14862,7 +14902,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14899,14 +14939,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 8347-2024</t>
+          <t>A 11034-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45352.55664351852</v>
+        <v>45723.47810185186</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14918,13 +14958,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>9.1</v>
+        <v>4.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14961,14 +14996,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 37229-2025</t>
+          <t>A 52959-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45876.30645833333</v>
+        <v>45956</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14981,7 +15016,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -15018,14 +15053,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 8869-2022</t>
+          <t>A 9645-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44614</v>
+        <v>45362</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15037,8 +15072,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -15075,14 +15115,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 51642-2025</t>
+          <t>A 12008-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45951.44524305555</v>
+        <v>45728.61679398148</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15100,7 +15140,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -15137,14 +15177,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 37591-2025</t>
+          <t>A 36291-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45880.41182870371</v>
+        <v>45867</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15156,8 +15196,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G218" t="n">
-        <v>9.9</v>
+        <v>2.6</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -15194,14 +15239,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 37717-2025</t>
+          <t>A 36294-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45880.61226851852</v>
+        <v>45867.67050925926</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15219,7 +15264,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -15256,14 +15301,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 37718-2025</t>
+          <t>A 36880-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45880.61376157407</v>
+        <v>44805.65100694444</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15275,13 +15320,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -15318,14 +15358,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 37727-2025</t>
+          <t>A 8347-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45880.62028935185</v>
+        <v>45352.55664351852</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15343,7 +15383,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>3.2</v>
+        <v>9.1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -15380,14 +15420,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 37714-2025</t>
+          <t>A 8869-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45880.60302083333</v>
+        <v>44614</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15399,13 +15439,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G222" t="n">
-        <v>6.5</v>
+        <v>1.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -15442,14 +15477,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 37601-2025</t>
+          <t>A 59165-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45880.42255787037</v>
+        <v>45988</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15462,7 +15497,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>7.8</v>
+        <v>1.4</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -15499,14 +15534,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 51916-2025</t>
+          <t>A 36789-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45952.47767361111</v>
+        <v>45873.63458333333</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15518,13 +15553,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G224" t="n">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -15561,14 +15591,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 51920-2025</t>
+          <t>A 36619-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45952.48380787037</v>
+        <v>45870.63782407407</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15580,13 +15610,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -15623,14 +15648,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 51924-2025</t>
+          <t>A 1247-2026</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45952.49305555555</v>
+        <v>46031.4290625</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15648,7 +15673,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -15685,14 +15710,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 51942-2025</t>
+          <t>A 37054-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45952.52392361111</v>
+        <v>45875.36756944445</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15704,13 +15729,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -15747,14 +15767,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 38010-2025</t>
+          <t>A 36824-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45882.3046412037</v>
+        <v>45874.29803240741</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15767,7 +15787,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -15804,14 +15824,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 38179-2025</t>
+          <t>A 37048-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45882.64409722222</v>
+        <v>45875.35450231482</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15824,7 +15844,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -15861,14 +15881,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 51938-2025</t>
+          <t>A 37059-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45952.51895833333</v>
+        <v>45875.37520833333</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15880,13 +15900,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>1.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -15923,14 +15938,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 51940-2025</t>
+          <t>A 37049-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45952.52118055556</v>
+        <v>45875.36108796296</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15942,13 +15957,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -15985,14 +15995,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 38008-2025</t>
+          <t>A 37323-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45882.29001157408</v>
+        <v>45876.62699074074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16004,8 +16014,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G232" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -16042,14 +16057,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 37797-2025</t>
+          <t>A 37228-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45881.34215277778</v>
+        <v>45876.3007175926</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16062,7 +16077,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>3.6</v>
+        <v>16.2</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -16099,14 +16114,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 52959-2025</t>
+          <t>A 9073-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45956</v>
+        <v>44979.84893518518</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16119,7 +16134,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -16156,14 +16171,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 9073-2023</t>
+          <t>A 37321-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44979.84893518518</v>
+        <v>45876.62380787037</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16175,8 +16190,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G235" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -16213,14 +16233,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 37723-2023</t>
+          <t>A 1254-2026</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45159</v>
+        <v>46031.43969907407</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16232,8 +16252,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G236" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -16270,14 +16295,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 7238-2026</t>
+          <t>A 37229-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>46058.58313657407</v>
+        <v>45876.30645833333</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16289,13 +16314,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G237" t="n">
-        <v>5.4</v>
+        <v>2.9</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -16332,14 +16352,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 37451-2023</t>
+          <t>A 1259-2026</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45156.70214120371</v>
+        <v>46031.45591435185</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16394,14 +16414,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 9414-2022</t>
+          <t>A 37723-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44616.67115740741</v>
+        <v>45159</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16413,13 +16433,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G239" t="n">
-        <v>8.9</v>
+        <v>4.1</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -16456,14 +16471,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 15523-2024</t>
+          <t>A 54058-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45401.58033564815</v>
+        <v>45964.32967592592</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16481,7 +16496,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -16518,14 +16533,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 54058-2025</t>
+          <t>A 54062-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45964.32967592592</v>
+        <v>45964.33197916667</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16543,7 +16558,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -16580,14 +16595,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 54062-2025</t>
+          <t>A 37591-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45964.33197916667</v>
+        <v>45880.41182870371</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16599,13 +16614,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G242" t="n">
-        <v>0.7</v>
+        <v>9.9</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -16649,7 +16659,7 @@
         <v>45964.33086805556</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16704,14 +16714,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 28535-2024</t>
+          <t>A 37717-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45478.34103009259</v>
+        <v>45880.61226851852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16729,7 +16739,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.3</v>
+        <v>3.2</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -16766,14 +16776,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 55344-2025</t>
+          <t>A 37718-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45971.34900462963</v>
+        <v>45880.61376157407</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16791,7 +16801,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>4.7</v>
+        <v>1.1</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -16828,14 +16838,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 55329-2025</t>
+          <t>A 37727-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45971.34008101852</v>
+        <v>45880.62028935185</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16853,7 +16863,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -16890,14 +16900,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 55210-2025</t>
+          <t>A 37714-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45968.57971064815</v>
+        <v>45880.60302083333</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16915,7 +16925,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -16952,14 +16962,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 38010-2023</t>
+          <t>A 59049-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45160</v>
+        <v>45988.38333333333</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16972,7 +16982,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>9.199999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -17009,14 +17019,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 7991-2026</t>
+          <t>A 37601-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>46063.49616898148</v>
+        <v>45880.42255787037</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17029,7 +17039,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.8</v>
+        <v>7.8</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -17066,14 +17076,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 41345-2023</t>
+          <t>A 37451-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45174</v>
+        <v>45156.70214120371</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17087,11 +17097,11 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -17128,14 +17138,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 60082-2023</t>
+          <t>A 9414-2022</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45258</v>
+        <v>44616.67115740741</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17149,11 +17159,11 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.7</v>
+        <v>8.9</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -17190,14 +17200,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 56061-2025</t>
+          <t>A 55344-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45973.63927083334</v>
+        <v>45971.34900462963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17215,7 +17225,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -17252,14 +17262,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 7989-2026</t>
+          <t>A 38010-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>46063.49473379629</v>
+        <v>45882.3046412037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17272,7 +17282,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>5.2</v>
+        <v>3.9</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -17309,14 +17319,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 7992-2026</t>
+          <t>A 38179-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>46063.49729166667</v>
+        <v>45882.64409722222</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17329,7 +17339,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.6</v>
+        <v>8.4</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -17366,14 +17376,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 17700-2025</t>
+          <t>A 15523-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45758</v>
+        <v>45401.58033564815</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17385,8 +17395,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G255" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -17423,14 +17438,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 56272-2023</t>
+          <t>A 38008-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45241</v>
+        <v>45882.29001157408</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17443,7 +17458,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -17480,14 +17495,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 2910-2025</t>
+          <t>A 37797-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45677</v>
+        <v>45881.34215277778</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17500,7 +17515,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -17537,14 +17552,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 1793-2026</t>
+          <t>A 28535-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>46034</v>
+        <v>45478.34103009259</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17556,8 +17571,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G258" t="n">
-        <v>23.5</v>
+        <v>0.3</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -17594,14 +17614,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 56885-2025</t>
+          <t>A 59965-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45978.55758101852</v>
+        <v>45993.48270833334</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17613,13 +17633,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G259" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -17656,14 +17671,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 56881-2025</t>
+          <t>A 38010-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45978.55412037037</v>
+        <v>45160</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17675,13 +17690,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G260" t="n">
-        <v>0.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -17718,14 +17728,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 56890-2025</t>
+          <t>A 41345-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45978.56460648148</v>
+        <v>45174</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17739,11 +17749,11 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -17780,14 +17790,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 56878-2025</t>
+          <t>A 59861-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45978.54403935185</v>
+        <v>45992.80664351852</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17801,11 +17811,11 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -17842,14 +17852,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 58574-2024</t>
+          <t>A 60082-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45635</v>
+        <v>45258</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17861,8 +17871,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G263" t="n">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -17899,14 +17914,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 57845-2025</t>
+          <t>A 17700-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45981.63077546296</v>
+        <v>45758</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17919,7 +17934,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>23.7</v>
+        <v>1.3</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -17956,14 +17971,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 56839-2025</t>
+          <t>A 56272-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45978.48106481481</v>
+        <v>45241</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17976,7 +17991,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -18013,14 +18028,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 9814-2025</t>
+          <t>A 2910-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45715</v>
+        <v>45677</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18033,7 +18048,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -18070,14 +18085,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 57766-2025</t>
+          <t>A 60558-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45981.5586574074</v>
+        <v>45995.74844907408</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18090,7 +18105,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -18127,14 +18142,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 12018-2025</t>
+          <t>A 58574-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45728.6249537037</v>
+        <v>45635</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18146,13 +18161,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G268" t="n">
-        <v>0.3</v>
+        <v>6</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -18189,14 +18199,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 12471-2022</t>
+          <t>A 9814-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>44638</v>
+        <v>45715</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18209,7 +18219,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -18246,14 +18256,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 31480-2021</t>
+          <t>A 12018-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44369</v>
+        <v>45728.6249537037</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18265,8 +18275,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G270" t="n">
-        <v>3.7</v>
+        <v>0.3</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -18303,14 +18318,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 8892-2026</t>
+          <t>A 12471-2022</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>46068.44726851852</v>
+        <v>44638</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18322,13 +18337,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G271" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -18365,14 +18375,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 55851-2023</t>
+          <t>A 31480-2021</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45239.65712962963</v>
+        <v>44369</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18385,7 +18395,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -18422,14 +18432,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 34527-2024</t>
+          <t>A 3235-2026</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45525</v>
+        <v>46041.56409722222</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18443,11 +18453,11 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G273" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -18484,14 +18494,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 621-2026</t>
+          <t>A 3259-2026</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>46029.54597222222</v>
+        <v>46041.59275462963</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18505,11 +18515,11 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G274" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -18546,14 +18556,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 31747-2022</t>
+          <t>A 55851-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44776</v>
+        <v>45239.65712962963</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18566,7 +18576,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -18603,14 +18613,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 58765-2025</t>
+          <t>A 3037-2026</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45986.66369212963</v>
+        <v>46038.72572916667</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18624,11 +18634,11 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G276" t="n">
-        <v>4.4</v>
+        <v>9</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -18665,14 +18675,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 59-2026</t>
+          <t>A 3236-2026</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>46024</v>
+        <v>46041.56473379629</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18684,8 +18694,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G277" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -18722,14 +18737,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 620-2026</t>
+          <t>A 3257-2026</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>46029.54340277778</v>
+        <v>46041.59184027778</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18743,11 +18758,11 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -18784,14 +18799,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 31994-2022</t>
+          <t>A 34527-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>44778.31512731482</v>
+        <v>45525</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18803,8 +18818,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G279" t="n">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -18841,14 +18861,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 613-2026</t>
+          <t>A 31747-2022</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>46029.53724537037</v>
+        <v>44776</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18860,13 +18880,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G280" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -18903,14 +18918,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 63912-2025</t>
+          <t>A 31994-2022</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>46020</v>
+        <v>44778.31512731482</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18920,11 +18935,6 @@
       <c r="E281" t="inlineStr">
         <is>
           <t>HALLSBERG</t>
-        </is>
-      </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G281" t="n">
@@ -18965,14 +18975,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 40887-2023</t>
+          <t>A 61526-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45173</v>
+        <v>46001</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18985,7 +18995,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -19022,14 +19032,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 43679-2022</t>
+          <t>A 40887-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>44837</v>
+        <v>45173</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19042,7 +19052,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -19079,14 +19089,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 12133-2023</t>
+          <t>A 43679-2022</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>44998</v>
+        <v>44837</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19099,7 +19109,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -19136,14 +19146,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 40607-2021</t>
+          <t>A 3896-2026</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>44420</v>
+        <v>46043.68329861111</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19155,8 +19165,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G285" t="n">
-        <v>3.7</v>
+        <v>6.8</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -19193,14 +19208,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 59165-2025</t>
+          <t>A 3897-2026</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45988</v>
+        <v>46043.68909722222</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19212,8 +19227,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G286" t="n">
-        <v>1.4</v>
+        <v>11.3</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -19250,14 +19270,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 8897-2026</t>
+          <t>A 12133-2023</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>46068.47233796296</v>
+        <v>44998</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19269,13 +19289,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G287" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -19312,14 +19327,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 1247-2026</t>
+          <t>A 40607-2021</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>46031.4290625</v>
+        <v>44420</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19331,13 +19346,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G288" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -19374,14 +19384,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 1254-2026</t>
+          <t>A 18137-2025</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>46031.43969907407</v>
+        <v>45761.60311342592</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19399,7 +19409,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -19436,14 +19446,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 1259-2026</t>
+          <t>A 6876-2023</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>46031.45591435185</v>
+        <v>44967.47450231481</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19455,13 +19465,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F290" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G290" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -19498,14 +19503,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 59049-2025</t>
+          <t>A 54075-2024</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45988.38333333333</v>
+        <v>45616.48739583333</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19518,7 +19523,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -19555,14 +19560,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 18137-2025</t>
+          <t>A 18140-2025</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45761.60311342592</v>
+        <v>45761.60518518519</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19580,7 +19585,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -19617,14 +19622,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 59965-2025</t>
+          <t>A 62990-2025</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45993.48270833334</v>
+        <v>46009.514375</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19636,8 +19641,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G293" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -19674,14 +19684,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 59861-2025</t>
+          <t>A 40551-2023</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45992.80664351852</v>
+        <v>45170.45384259259</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19693,13 +19703,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F294" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G294" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -19736,14 +19741,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 60558-2025</t>
+          <t>A 36591-2021</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45995.74844907408</v>
+        <v>44391</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19756,7 +19761,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -19793,14 +19798,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 6876-2023</t>
+          <t>A 7238-2026</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>44967.47450231481</v>
+        <v>46058.58313657407</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19812,8 +19817,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G296" t="n">
-        <v>3.3</v>
+        <v>5.4</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -19850,14 +19860,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 54075-2024</t>
+          <t>A 18893-2024</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45616.48739583333</v>
+        <v>45427.33241898148</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19870,7 +19880,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>7.7</v>
+        <v>1.9</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -19907,14 +19917,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 3235-2026</t>
+          <t>A 46863-2024</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>46041.56409722222</v>
+        <v>45583</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19928,11 +19938,11 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G298" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -19969,14 +19979,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 3259-2026</t>
+          <t>A 14928-2022</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>46041.59275462963</v>
+        <v>44657</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19988,13 +19998,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F299" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G299" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -20031,14 +20036,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 3037-2026</t>
+          <t>A 7991-2026</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>46038.72572916667</v>
+        <v>46063.49616898148</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20050,13 +20055,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F300" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G300" t="n">
-        <v>9</v>
+        <v>0.8</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -20093,14 +20093,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 3236-2026</t>
+          <t>A 11016-2025</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>46041.56473379629</v>
+        <v>45723.46458333333</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20112,13 +20112,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G301" t="n">
-        <v>0.6</v>
+        <v>4.3</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -20155,14 +20150,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 3257-2026</t>
+          <t>A 50237-2024</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>46041.59184027778</v>
+        <v>45600</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20176,7 +20171,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G302" t="n">
@@ -20217,14 +20212,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 18140-2025</t>
+          <t>A 7989-2026</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45761.60518518519</v>
+        <v>46063.49473379629</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20236,13 +20231,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F303" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G303" t="n">
-        <v>2.8</v>
+        <v>5.2</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -20279,14 +20269,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 61526-2025</t>
+          <t>A 7992-2026</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>46001</v>
+        <v>46063.49729166667</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20299,7 +20289,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -20336,14 +20326,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 40551-2023</t>
+          <t>A 1793-2026</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45170.45384259259</v>
+        <v>46034</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20356,7 +20346,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>3</v>
+        <v>23.5</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -20393,14 +20383,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 3896-2026</t>
+          <t>A 57845-2025</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>46043.68329861111</v>
+        <v>45981.63077546296</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20412,13 +20402,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F306" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G306" t="n">
-        <v>6.8</v>
+        <v>23.7</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -20455,14 +20440,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 3897-2026</t>
+          <t>A 8892-2026</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>46043.68909722222</v>
+        <v>46068.44726851852</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20476,11 +20461,11 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G307" t="n">
-        <v>11.3</v>
+        <v>2</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -20517,14 +20502,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 36591-2021</t>
+          <t>A 59-2026</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>44391</v>
+        <v>46024</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20537,7 +20522,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -20574,14 +20559,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 18893-2024</t>
+          <t>A 5417-2024</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45427.33241898148</v>
+        <v>45331.64133101852</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20593,8 +20578,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G309" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -20631,14 +20621,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 46863-2024</t>
+          <t>A 8897-2026</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45583</v>
+        <v>46068.47233796296</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20693,14 +20683,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 14928-2022</t>
+          <t>A 33290-2021</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>44657</v>
+        <v>44377.40789351852</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20712,8 +20702,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G311" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -20750,14 +20745,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 11016-2025</t>
+          <t>A 613-2026</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45723.46458333333</v>
+        <v>46029.53724537037</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20769,8 +20764,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G312" t="n">
-        <v>4.3</v>
+        <v>1.7</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -20807,14 +20807,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 50237-2024</t>
+          <t>A 51350-2023</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45600</v>
+        <v>45213</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20826,13 +20826,8 @@
           <t>HALLSBERG</t>
         </is>
       </c>
-      <c r="F313" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G313" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -20869,14 +20864,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 5417-2024</t>
+          <t>A 620-2026</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45331.64133101852</v>
+        <v>46029.54340277778</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20890,11 +20885,11 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G314" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -20931,14 +20926,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 33290-2021</t>
+          <t>A 61057-2023</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>44377.40789351852</v>
+        <v>45261.61064814815</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20956,7 +20951,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -20993,14 +20988,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 51350-2023</t>
+          <t>A 61058-2023</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45213</v>
+        <v>45261.61119212963</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21012,8 +21007,13 @@
           <t>HALLSBERG</t>
         </is>
       </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G316" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -21050,14 +21050,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 61057-2023</t>
+          <t>A 11984-2025</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45261.61064814815</v>
+        <v>45728.59774305556</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -21112,14 +21112,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 61058-2023</t>
+          <t>A 19853-2022</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45261.61119212963</v>
+        <v>44696.95393518519</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -21174,14 +21174,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 11984-2025</t>
+          <t>A 621-2026</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45728.59774305556</v>
+        <v>46029.54597222222</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21199,7 +21199,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -21236,14 +21236,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 19853-2022</t>
+          <t>A 63912-2025</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>44696.95393518519</v>
+        <v>46020</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -21305,7 +21305,7 @@
         <v>45279</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>45084</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>45775.39032407408</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>45398.66583333333</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>45149</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>45225.84559027778</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21652,7 +21652,7 @@
         <v>45580</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>44777</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>45427.32600694444</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>44916</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45559</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>44696</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>44610</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>45082</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>45582.75087962963</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>45096.43236111111</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>45342</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>44258</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>45174</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22418,7 +22418,7 @@
         <v>45583</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>45761.60049768518</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22542,7 +22542,7 @@
         <v>44869</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>45583</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>44814</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44665</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>45717.85300925926</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44756.38414351852</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>45126.54177083333</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>45174</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>45349.60084490741</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23080,7 +23080,7 @@
         <v>45349.60403935185</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23137,7 +23137,7 @@
         <v>45478.34296296296</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>45478.34668981482</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>45235.89943287037</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23323,7 +23323,7 @@
         <v>45195.59644675926</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45565</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23447,7 +23447,7 @@
         <v>45225.8415625</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>45583</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23566,7 +23566,7 @@
         <v>45583.59436342592</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23628,7 +23628,7 @@
         <v>45084.39814814815</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23685,7 +23685,7 @@
         <v>45321.63527777778</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23742,7 +23742,7 @@
         <v>45728.60030092593</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23804,7 +23804,7 @@
         <v>45049</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>45397</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>44424</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23980,7 +23980,7 @@
         <v>45580.93525462963</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24042,7 +24042,7 @@
         <v>45387.57523148148</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24099,7 +24099,7 @@
         <v>44982.51056712963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24156,7 +24156,7 @@
         <v>45487.82888888889</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24213,7 +24213,7 @@
         <v>45668</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24270,7 +24270,7 @@
         <v>44636</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>45040</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24384,7 +24384,7 @@
         <v>45432.66449074074</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24446,7 +24446,7 @@
         <v>45226</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24508,7 +24508,7 @@
         <v>44839.495</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24565,7 +24565,7 @@
         <v>45502</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24622,7 +24622,7 @@
         <v>45728.62311342593</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>45518.64752314815</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>45240</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>44862.36460648148</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>45352.55505787037</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>45272</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>45728.50564814815</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>45439</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>45258</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25155,7 +25155,7 @@
         <v>44361</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25212,7 +25212,7 @@
         <v>45686.56048611111</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>44610.33194444444</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25326,7 +25326,7 @@
         <v>45747</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>45198</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25445,7 +25445,7 @@
         <v>45600</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         <v>44496</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25564,7 +25564,7 @@
         <v>45776.51016203704</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25626,7 +25626,7 @@
         <v>45776.51508101852</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>45776.51268518518</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         <v>45513</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>

--- a/Översikt HALLSBERG.xlsx
+++ b/Översikt HALLSBERG.xlsx
@@ -575,7 +575,7 @@
         <v>45881</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>45197</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>45845.86603009259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>45881.29332175926</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45720.35863425926</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>45954.52908564815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>45263</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>45105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>44657</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>45272</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45731.48357638889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>45443.59229166667</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>45190</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44593.67902777778</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>45971.33545138889</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44683</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>45191</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>45027</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>44315</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>45586.93074074074</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45565</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>45197.59850694444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>44816</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45932.49184027778</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>44762.77344907408</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>45282</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>45148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>45817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44862.47282407407</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>44477</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>45002</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>45581.85145833333</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>44355</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>45894.43561342593</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>45894.44199074074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>45705</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>45034</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>45911.3615162037</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44935</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>45880.59251157408</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>45880.56877314814</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>44328</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>45952.48162037037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>45952.48967592593</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>45971.33780092592</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>44937</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         <v>45981.55697916666</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>45314</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>45002</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44886.64203703704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>45392.56644675926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>46031.43295138889</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>45513</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>45362</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>45397.30905092593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         <v>44412.54666666667</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44488</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>44585</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>44336.37702546296</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         <v>44434.92876157408</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>44862.49034722222</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>44782.74493055556</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>44414.58070601852</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         <v>44705.64063657408</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         <v>44648.66108796297</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44343.63606481482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>44643</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>44267.65956018519</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44414.60469907407</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44335.4658912037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44816</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44862.44369212963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44657</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>44616.68016203704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>44720</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>44533.67351851852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>44651</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>44757.49012731481</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>44839.49916666667</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>44434.9337037037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>44757.48751157407</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44533.69733796296</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>45338</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>45397.31064814814</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>45425.65702546296</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>44615.58527777778</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>44956.8174537037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
         <v>45602.67336805556</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>45714.44074074074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>45280.65321759259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>44651</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>44531</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>45487.82146990741</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>45460.68122685186</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>44490</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>45002</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>44791</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8138,7 +8138,7 @@
         <v>45540.40835648148</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8195,7 +8195,7 @@
         <v>45432.55381944445</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>45602.67616898148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>45467.36495370371</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>45226</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8433,7 +8433,7 @@
         <v>45700.64421296296</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>44827</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>44686.66105324074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         <v>45084.39651620371</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>45229</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>45176.68957175926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>45195</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>45159.57568287037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>45582.87300925926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>45196</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>44676</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>45240</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>45226.65587962963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>45728.62653935186</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>45346.78131944445</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9313,7 +9313,7 @@
         <v>45034</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>45751.49979166667</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>45562</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>45726.5303587963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>45700.64820601852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>45821.68605324074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>45821.65877314815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>45821.66652777778</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>45821.68314814815</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>45727</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>45702</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44974.64246527778</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>45813</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>45098</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         <v>45700.63533564815</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>45891.66709490741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>44960.55600694445</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10317,7 +10317,7 @@
         <v>44960.56233796296</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10374,7 +10374,7 @@
         <v>45894.43824074074</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>45894.4325</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>45894.44390046296</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44978</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>45190</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>45034</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>45427.32009259259</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>44627.6367824074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>45896</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>45902.40634259259</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>45902.64018518518</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>45545</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>45838.63046296296</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>45902.40513888889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>45838.66005787037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>45905.3868287037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>45905.67453703703</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         <v>45173.48231481481</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>44532.38833333334</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>45010</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>45084</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>45842.29508101852</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>45911.36046296296</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>45911.37391203704</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>45911.37444444445</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>45915.6069212963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>45012.62157407407</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>45723.44292824074</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>45114</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>45723.47810185186</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>45362</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>45916.37457175926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44805.65100694444</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>45352.55664351852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>44614</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>45924.63674768519</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>45576.40886574074</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>45867</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>45728.61679398148</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>45867</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12744,7 +12744,7 @@
         <v>45867.67050925926</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44979.84893518518</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>45159</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>45156.70214120371</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44616.67115740741</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>45873.63458333333</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>45870.63782407407</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>45401.58033564815</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>45875.36756944445</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>45874.29803240741</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>45875.35450231482</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>45875.37520833333</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>45875.36108796296</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>45876.62699074074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>45876.3007175926</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>45933.45418981482</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>45478.34103009259</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>45876.62380787037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>45876.30645833333</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>45880.41182870371</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>45880.61226851852</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>45880.61376157407</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>45880.62028935185</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>45932.51552083333</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         <v>45932.49747685185</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>45932.50626157408</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>45932.51337962963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>45932.53057870371</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>45932.53211805555</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>45880.60302083333</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>45880.42255787037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>45160</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>45174</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>45258</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>45882.3046412037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>45882.64409722222</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>45758</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>45882.29001157408</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>45881.34215277778</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>45241</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>45939.50087962963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>45677</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>45939.49789351852</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>45635</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>45715</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         <v>45937.6756712963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>45728.6249537037</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>44638</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44369</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>45239.65712962963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         <v>45525</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>44776</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>45947.33725694445</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44778.31512731482</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>45951.44524305555</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>45173</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44837</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44998</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44420</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>45952.47767361111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>45952.48380787037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>45952.49305555555</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>45952.52392361111</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16485,7 +16485,7 @@
         <v>45952.51895833333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16547,7 +16547,7 @@
         <v>45952.52118055556</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16609,7 +16609,7 @@
         <v>45956</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16666,7 +16666,7 @@
         <v>45761.60311342592</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44967.47450231481</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>45616.48739583333</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45964.32967592592</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>45964.33197916667</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
         <v>45964.33086805556</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>45971.34900462963</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17090,7 +17090,7 @@
         <v>45761.60518518519</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>45971.34008101852</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>45968.57971064815</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17276,7 +17276,7 @@
         <v>45973.63927083334</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>45170.45384259259</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>45978.55758101852</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17457,7 +17457,7 @@
         <v>45978.55412037037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17519,7 +17519,7 @@
         <v>45978.56460648148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17581,7 +17581,7 @@
         <v>45978.54403935185</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>45978.48106481481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>45981.5586574074</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>44391</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>45427.33241898148</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>45583</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17933,7 +17933,7 @@
         <v>45986.66369212963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17995,7 +17995,7 @@
         <v>44657</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>45988</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>45723.46458333333</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>45600</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18228,7 +18228,7 @@
         <v>45988.38333333333</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>45993.48270833334</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>45992.80664351852</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>45995.74844907408</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>45331.64133101852</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>46041.56409722222</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>46041.59275462963</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>46038.72572916667</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>46041.56473379629</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>46041.59184027778</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44377.40789351852</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>45213</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>45261.61064814815</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19014,7 +19014,7 @@
         <v>45261.61119212963</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>46001</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>45728.59774305556</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>46043.68329861111</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>46043.68909722222</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19319,7 +19319,7 @@
         <v>44696.95393518519</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>45279</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>45084</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>45775.39032407408</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>45398.66583333333</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>45149</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>45225.84559027778</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>45580</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>44777</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19852,7 +19852,7 @@
         <v>45427.32600694444</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>46009.514375</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19971,7 +19971,7 @@
         <v>44916</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20033,7 +20033,7 @@
         <v>45559</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20090,7 +20090,7 @@
         <v>44696</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         <v>44610</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>45082</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>45582.75087962963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>45096.43236111111</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>46058.58313657407</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>45342</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44258</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>46063.49616898148</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>46063.49473379629</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>46063.49729166667</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>45174</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20789,7 +20789,7 @@
         <v>45583</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20851,7 +20851,7 @@
         <v>46034</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
         <v>45761.60049768518</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20970,7 +20970,7 @@
         <v>45981.63077546296</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21027,7 +21027,7 @@
         <v>44869</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>45583</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44814</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>46068.44726851852</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>44665</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>46024</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>46068.47233796296</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>45717.85300925926</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>46029.53724537037</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>46029.54340277778</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>46029.54597222222</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>46020</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>44756.38414351852</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>45126.54177083333</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>45174</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21937,7 +21937,7 @@
         <v>45349.60084490741</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21994,7 +21994,7 @@
         <v>45349.60403935185</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         <v>45478.34296296296</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>45478.34668981482</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22175,7 +22175,7 @@
         <v>45235.89943287037</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>45195.59644675926</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>46031.4290625</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22361,7 +22361,7 @@
         <v>46031.43969907407</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22423,7 +22423,7 @@
         <v>46031.45591435185</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22485,7 +22485,7 @@
         <v>45565</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22547,7 +22547,7 @@
         <v>45225.8415625</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>45583</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>45583.59436342592</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>45084.39814814815</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>45321.63527777778</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>45728.60030092593</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>45049</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>45397</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44424</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23080,7 +23080,7 @@
         <v>45580.93525462963</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>45387.57523148148</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44982.51056712963</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>45487.82888888889</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>45668</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44636</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23427,7 +23427,7 @@
         <v>45040</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>45432.66449074074</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>45226</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44839.495</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>45502</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>45728.62311342593</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45518.64752314815</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>45240</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44862.36460648148</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>45352.55505787037</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>45272</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>45728.50564814815</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24136,7 +24136,7 @@
         <v>45439</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>45258</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>44361</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24312,7 +24312,7 @@
         <v>45686.56048611111</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
         <v>44610.33194444444</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24426,7 +24426,7 @@
         <v>45747</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>45198</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24545,7 +24545,7 @@
         <v>45600</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>44496</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>45776.51016203704</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24726,7 +24726,7 @@
         <v>45776.51508101852</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24788,7 +24788,7 @@
         <v>45776.51268518518</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>45513</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>44827.45902777778</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24969,7 +24969,7 @@
         <v>45614.06451388889</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         <v>45574.51289351852</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25083,7 +25083,7 @@
         <v>45432.66407407408</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25145,7 +25145,7 @@
         <v>45797</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25207,7 +25207,7 @@
         <v>45802.75168981482</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>45802.7302199074</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25331,7 +25331,7 @@
         <v>45802.74466435185</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>45802.73936342593</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25455,7 +25455,7 @@
         <v>45802.75615740741</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>45810.66016203703</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>45812.31252314815</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>45812</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>45812</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>45817.48034722222</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>

--- a/Översikt HALLSBERG.xlsx
+++ b/Översikt HALLSBERG.xlsx
@@ -575,7 +575,7 @@
         <v>45881</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>45197</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>45845.86603009259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>45881.29332175926</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45720.35863425926</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>45954.52908564815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>45263</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>45105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>44657</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>45272</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45731.48357638889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>45443.59229166667</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>45190</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44593.67902777778</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>45971.33545138889</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>44683</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>45191</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>45027</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>44315</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>45586.93074074074</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45565</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>45197.59850694444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>44816</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45932.49184027778</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>44762.77344907408</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>45282</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>45148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>45817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44862.47282407407</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>44477</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>45002</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>45581.85145833333</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>44355</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>45894.43561342593</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>45894.44199074074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>45705</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>45034</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>45911.3615162037</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44935</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>45880.59251157408</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>45880.56877314814</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>44328</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>45952.48162037037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>45952.48967592593</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>45971.33780092592</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>44937</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         <v>45981.55697916666</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>45314</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>45002</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44886.64203703704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>45392.56644675926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>46031.43295138889</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>45513</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>45362</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>45397.30905092593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         <v>44412.54666666667</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44488</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>44585</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>44336.37702546296</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         <v>44434.92876157408</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>44862.49034722222</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>44782.74493055556</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>44414.58070601852</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         <v>44705.64063657408</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         <v>44648.66108796297</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44343.63606481482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>44643</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>44267.65956018519</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44414.60469907407</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44335.4658912037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44816</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44862.44369212963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44657</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>44616.68016203704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>44720</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>44533.67351851852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>44651</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>44757.49012731481</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>44839.49916666667</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>44434.9337037037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>44757.48751157407</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44533.69733796296</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>45338</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>45397.31064814814</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>45425.65702546296</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>44615.58527777778</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>44956.8174537037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
         <v>45602.67336805556</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>45714.44074074074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>45280.65321759259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>44651</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>44531</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>45487.82146990741</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>45460.68122685186</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>44490</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>45002</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>44791</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8138,7 +8138,7 @@
         <v>45540.40835648148</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8195,7 +8195,7 @@
         <v>45432.55381944445</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>45602.67616898148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>45467.36495370371</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>45226</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8433,7 +8433,7 @@
         <v>45700.64421296296</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>44827</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>44686.66105324074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         <v>45084.39651620371</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>45229</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>45176.68957175926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>45195</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>45159.57568287037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>45582.87300925926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>45196</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>44676</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>45240</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>45226.65587962963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>45728.62653935186</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>45346.78131944445</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9313,7 +9313,7 @@
         <v>45034</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>45751.49979166667</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>45562</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>45726.5303587963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>45700.64820601852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>45821.68605324074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>45821.65877314815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>45821.66652777778</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>45821.68314814815</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>45727</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>45702</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44974.64246527778</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>45813</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>45098</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         <v>45700.63533564815</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>45891.66709490741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>44960.55600694445</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10317,7 +10317,7 @@
         <v>44960.56233796296</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10374,7 +10374,7 @@
         <v>45894.43824074074</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>45894.4325</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>45894.44390046296</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44978</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>45190</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>45034</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>45427.32009259259</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>44627.6367824074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>45896</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>45902.40634259259</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>45902.64018518518</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>45545</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>45838.63046296296</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>45902.40513888889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>45838.66005787037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>45905.3868287037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>45905.67453703703</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         <v>45173.48231481481</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>44532.38833333334</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>45010</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>45084</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>45842.29508101852</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>45911.36046296296</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>45911.37391203704</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>45911.37444444445</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>45915.6069212963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>45012.62157407407</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>45723.44292824074</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>45114</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>45723.47810185186</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>45362</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>45916.37457175926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44805.65100694444</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>45352.55664351852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>44614</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>45924.63674768519</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>45576.40886574074</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>45867</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>45728.61679398148</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>45867</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12744,7 +12744,7 @@
         <v>45867.67050925926</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44979.84893518518</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>45159</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>45156.70214120371</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44616.67115740741</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>45873.63458333333</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>45870.63782407407</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>45401.58033564815</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>45875.36756944445</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>45874.29803240741</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>45875.35450231482</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>45875.37520833333</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>45875.36108796296</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>45876.62699074074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>45876.3007175926</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>45933.45418981482</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>45478.34103009259</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>45876.62380787037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>45876.30645833333</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>45880.41182870371</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>45880.61226851852</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>45880.61376157407</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>45880.62028935185</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>45932.51552083333</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         <v>45932.49747685185</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>45932.50626157408</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         <v>45932.51337962963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>45932.53057870371</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>45932.53211805555</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>45880.60302083333</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>45880.42255787037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>45160</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>45174</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>45258</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>45882.3046412037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>45882.64409722222</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>45758</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>45882.29001157408</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>45881.34215277778</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>45241</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>45939.50087962963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>45677</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>45939.49789351852</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>45635</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>45715</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         <v>45937.6756712963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>45728.6249537037</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>44638</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44369</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>45239.65712962963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         <v>45525</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>44776</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>45947.33725694445</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44778.31512731482</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>45951.44524305555</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>45173</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44837</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44998</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44420</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>45952.47767361111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>45952.48380787037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>45952.49305555555</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>45952.52392361111</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16485,7 +16485,7 @@
         <v>45952.51895833333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16547,7 +16547,7 @@
         <v>45952.52118055556</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16609,7 +16609,7 @@
         <v>45956</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16666,7 +16666,7 @@
         <v>45761.60311342592</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44967.47450231481</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>45616.48739583333</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45964.32967592592</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>45964.33197916667</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
         <v>45964.33086805556</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>45971.34900462963</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17090,7 +17090,7 @@
         <v>45761.60518518519</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>45971.34008101852</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>45968.57971064815</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17276,7 +17276,7 @@
         <v>45973.63927083334</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>45170.45384259259</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>45978.55758101852</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17457,7 +17457,7 @@
         <v>45978.55412037037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17519,7 +17519,7 @@
         <v>45978.56460648148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17581,7 +17581,7 @@
         <v>45978.54403935185</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>45978.48106481481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>45981.5586574074</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>44391</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>45427.33241898148</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>45583</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17933,7 +17933,7 @@
         <v>45986.66369212963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17995,7 +17995,7 @@
         <v>44657</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>45988</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>45723.46458333333</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>45600</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18228,7 +18228,7 @@
         <v>45988.38333333333</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>45993.48270833334</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>45992.80664351852</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>45995.74844907408</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>45331.64133101852</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>46041.56409722222</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>46041.59275462963</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>46038.72572916667</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>46041.56473379629</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>46041.59184027778</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44377.40789351852</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>45213</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>45261.61064814815</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19014,7 +19014,7 @@
         <v>45261.61119212963</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>46001</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>45728.59774305556</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>46043.68329861111</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>46043.68909722222</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19319,7 +19319,7 @@
         <v>44696.95393518519</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>45279</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>45084</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>45775.39032407408</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>45398.66583333333</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>45149</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>45225.84559027778</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>45580</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>44777</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19852,7 +19852,7 @@
         <v>45427.32600694444</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>46009.514375</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19971,7 +19971,7 @@
         <v>44916</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20033,7 +20033,7 @@
         <v>45559</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20090,7 +20090,7 @@
         <v>44696</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         <v>44610</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>45082</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>45582.75087962963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>45096.43236111111</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>46058.58313657407</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>45342</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44258</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>46063.49616898148</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>46063.49473379629</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>46063.49729166667</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>45174</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20789,7 +20789,7 @@
         <v>45583</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20851,7 +20851,7 @@
         <v>46034</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
         <v>45761.60049768518</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20970,7 +20970,7 @@
         <v>45981.63077546296</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21027,7 +21027,7 @@
         <v>44869</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>45583</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44814</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>46068.44726851852</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>44665</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>46024</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>46068.47233796296</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>45717.85300925926</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>46029.53724537037</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>46029.54340277778</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>46029.54597222222</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>46020</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>44756.38414351852</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>45126.54177083333</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>45174</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21937,7 +21937,7 @@
         <v>45349.60084490741</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21994,7 +21994,7 @@
         <v>45349.60403935185</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         <v>45478.34296296296</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>45478.34668981482</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22175,7 +22175,7 @@
         <v>45235.89943287037</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>45195.59644675926</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>46031.4290625</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22361,7 +22361,7 @@
         <v>46031.43969907407</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22423,7 +22423,7 @@
         <v>46031.45591435185</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22485,7 +22485,7 @@
         <v>45565</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22547,7 +22547,7 @@
         <v>45225.8415625</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>45583</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>45583.59436342592</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>45084.39814814815</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>45321.63527777778</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>45728.60030092593</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>45049</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>45397</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44424</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23080,7 +23080,7 @@
         <v>45580.93525462963</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>45387.57523148148</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44982.51056712963</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>45487.82888888889</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>45668</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44636</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23427,7 +23427,7 @@
         <v>45040</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>45432.66449074074</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>45226</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44839.495</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>45502</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>45728.62311342593</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45518.64752314815</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>45240</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44862.36460648148</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>45352.55505787037</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>45272</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>45728.50564814815</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24136,7 +24136,7 @@
         <v>45439</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>45258</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>44361</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24312,7 +24312,7 @@
         <v>45686.56048611111</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
         <v>44610.33194444444</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24426,7 +24426,7 @@
         <v>45747</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>45198</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24545,7 +24545,7 @@
         <v>45600</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>44496</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>45776.51016203704</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24726,7 +24726,7 @@
         <v>45776.51508101852</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24788,7 +24788,7 @@
         <v>45776.51268518518</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>45513</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>44827.45902777778</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24969,7 +24969,7 @@
         <v>45614.06451388889</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         <v>45574.51289351852</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25083,7 +25083,7 @@
         <v>45432.66407407408</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25145,7 +25145,7 @@
         <v>45797</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25207,7 +25207,7 @@
         <v>45802.75168981482</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>45802.7302199074</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25331,7 +25331,7 @@
         <v>45802.74466435185</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>45802.73936342593</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25455,7 +25455,7 @@
         <v>45802.75615740741</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>45810.66016203703</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>45812.31252314815</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>45812</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>45812</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>45817.48034722222</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
